--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
@@ -5,26 +5,29 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mechelle\Desktop\ANALYTICS\@Jul 21\ANL252 [NEW]\ECA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\4_ECA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="9915" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Input Mark" sheetId="4" r:id="rId2"/>
+    <sheet name="Marks" sheetId="5" r:id="rId3"/>
+    <sheet name="Bloom" sheetId="2" r:id="rId4"/>
+    <sheet name="Analytics per Qn" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks!$A$1:$L$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$18:$18</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
   <si>
     <t>S/N</t>
   </si>
@@ -328,16 +331,360 @@
   </si>
   <si>
     <t>Z2070330</t>
+  </si>
+  <si>
+    <t>TMA/GBA/ECA Submission</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>* Please input your marks in the grey cells</t>
+  </si>
+  <si>
+    <t># of Submissions</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
+  </si>
+  <si>
+    <t>Honours</t>
+  </si>
+  <si>
+    <t>Letter Grade</t>
+  </si>
+  <si>
+    <t>GPV</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>1st Class</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>85-100</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>2nd Upper</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>2nd Lower</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>3rd Class</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>C+</t>
+  </si>
+  <si>
+    <t>55-59</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>50-54</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>D+</t>
+  </si>
+  <si>
+    <t>45-49</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>40-44</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>&lt;40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Sortable name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SIS Id</t>
+  </si>
+  <si>
+    <t>Question 1a</t>
+  </si>
+  <si>
+    <t>Question 1b</t>
+  </si>
+  <si>
+    <t>Question 1c</t>
+  </si>
+  <si>
+    <t>Question 1d</t>
+  </si>
+  <si>
+    <t>Question2a</t>
+  </si>
+  <si>
+    <t>Question 2b</t>
+  </si>
+  <si>
+    <t>Question 2c</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>reneechiu001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>elijahsong001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>GEEKGER EE</t>
+  </si>
+  <si>
+    <t>geekgeree001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>dyanpeh001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>yhtan030@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>wtchung001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>qwho001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>MICHAEL CHENG LEE BENG</t>
+  </si>
+  <si>
+    <t>michaelcheng001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>shtan077@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>ANG CHUNG SIONG, DEREK</t>
+  </si>
+  <si>
+    <t>derekang002@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>jjtan014@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>amirhamzah006@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>ckloo001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>joeyneo002@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>terrychia001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>kwlu001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>glong002@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>mptan004@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>michelletan013@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>farhan036@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>glenong001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>ehoon002@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>jltee002@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>danialloke001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>kjtia001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>alextong001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>YEO KER WOON, JAN</t>
+  </si>
+  <si>
+    <t>janyeo001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>brandontan006@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>CHEONG JIA EN, SANDRAS</t>
+  </si>
+  <si>
+    <t>syairazi001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>samuelfok001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>isabelloh001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>bryanlee004@suss.edu.sg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Learning Outcomes </t>
+  </si>
+  <si>
+    <t>Bloom’s Level</t>
+  </si>
+  <si>
+    <t>Question Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Differentiate the various aspects
+of Python programming.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss how Python manages
+packages, modules, functions, etc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explain the operations on arrays
+and datasets.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Python programmes for
+performing data analytics.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employ logic control flows in
+Python programmes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepare data for analysis using
+Python programming.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse data using appropriate
+tools and techniques with Python
+programming.
+</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Pass Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -408,13 +755,67 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,8 +852,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -587,24 +1006,426 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -612,12 +1433,12 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -626,12 +1447,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -640,160 +1461,343 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Comma 2" xfId="2"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Percent 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -804,6 +1808,1189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Percentage</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Input Mark'!$H$8:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80-84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75-79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70-74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&lt;40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Input Mark'!$I$8:$I$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0606060606060608E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.15151515151515152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0303030303030304E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352412288"/>
+        <c:axId val="401914776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352412288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="401914776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="401914776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352412288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Down Arrow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8029575" y="5038725"/>
+          <a:ext cx="990600" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7848600" y="4076701"/>
+          <a:ext cx="1333500" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>New for Jan2020 semester, please read!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6877051" cy="3419475"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2657474" y="6886575"/>
+          <a:ext cx="6877051" cy="3419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Each marker must check ALL Turnitin reports, and provide a short explanation of finding/action for only TMA or GBA assignment with unusually high Turnitin scores. Note that there is NO fixed threshold to define a high or low Turnitin score, as it depends on the characteristics of the assignment (e.g., length of the report, nature of the assignment, etc.). </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>For example, if most students have a score less than 20%, and now you see a report with 35% Turnitin score, you should explain why the score is so different. Some possible finding/actions include:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(1) student copied assignment questions into the report.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(2j student has a set of standard references commonly used by others</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(3) student has a large chunk of text cited using verbatim quote</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(4) student included an article as supplement of assignment</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(5) student did not use good paraphrasing technique, and you has penalised the work with mark deduction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>(6) suspected plagiarism case. You have submitted it to the exam department for investigation.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Format for reporting cases with high Turnitin score</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Student name, pi number, Turnitin score, Action/finding</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-SG" sz="1100"/>
+            <a:t>Course coordinator will need to verify marker submission. HoP will do random sampling of such cases to check.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-SG" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1098,100 +3285,100 @@
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="11.453125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="8.453125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" style="7" customWidth="1"/>
-    <col min="9" max="12" width="9.81640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="7" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
+    <col min="9" max="12" width="9.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="7"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
       <c r="N1" s="6"/>
     </row>
-    <row r="3" spans="1:18" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="67" t="s">
+      <c r="B3" s="129"/>
+      <c r="C3" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="133"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="133"/>
+      <c r="H3" s="133"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="25" customHeight="1">
-      <c r="A4" s="63" t="s">
+    <row r="4" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="129"/>
       <c r="C4" s="54">
         <v>44452</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="66"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="2">
         <f>C4+14</f>
         <v>44466</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="25" customHeight="1">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="63"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="64"/>
+      <c r="H5" s="130"/>
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="7.5" customHeight="1">
+    <row r="6" spans="1:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="53"/>
@@ -1200,7 +3387,7 @@
       <c r="H6" s="16"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="25" customHeight="1">
+    <row r="7" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
@@ -1210,13 +3397,13 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="62"/>
+      <c r="H7" s="128"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:18" ht="25" customHeight="1">
+    <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="30"/>
@@ -1230,7 +3417,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="31"/>
     </row>
-    <row r="10" spans="1:18" ht="13">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="35" t="s">
         <v>20</v>
       </c>
@@ -1247,14 +3434,14 @@
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
     </row>
-    <row r="11" spans="1:18" ht="31.5" customHeight="1">
+    <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="126"/>
       <c r="D11" s="41" t="s">
         <v>1</v>
       </c>
@@ -1265,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="44">
         <v>1</v>
       </c>
@@ -1286,7 +3473,7 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
     </row>
-    <row r="13" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="44">
         <v>2</v>
       </c>
@@ -1307,7 +3494,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
     </row>
-    <row r="14" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="44">
         <v>3</v>
       </c>
@@ -1328,7 +3515,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
     </row>
-    <row r="15" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -1348,7 +3535,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:18" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
@@ -1368,7 +3555,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:11" ht="13">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>12</v>
       </c>
@@ -1378,14 +3565,14 @@
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
     </row>
-    <row r="18" spans="1:11" ht="31.5" customHeight="1">
+    <row r="18" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="61"/>
+      <c r="C18" s="127"/>
       <c r="D18" s="41" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +3583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44">
         <v>1</v>
       </c>
@@ -1415,7 +3602,7 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
     </row>
-    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44">
         <v>2</v>
       </c>
@@ -1426,7 +3613,7 @@
       <c r="D20" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="57"/>
+      <c r="E20" s="135"/>
       <c r="F20" s="49"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -1434,7 +3621,7 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44">
         <v>3</v>
       </c>
@@ -1445,7 +3632,7 @@
       <c r="D21" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="135"/>
       <c r="F21" s="49"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -1453,7 +3640,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44">
         <v>4</v>
       </c>
@@ -1472,7 +3659,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44">
         <v>5</v>
       </c>
@@ -1491,7 +3678,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44">
         <v>6</v>
       </c>
@@ -1510,7 +3697,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
     </row>
-    <row r="25" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44">
         <v>7</v>
       </c>
@@ -1529,7 +3716,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
     </row>
-    <row r="26" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:11" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44">
         <v>8</v>
       </c>
@@ -1548,7 +3735,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
-    <row r="27" spans="1:11" ht="14.5">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="44">
         <v>9</v>
       </c>
@@ -1562,7 +3749,7 @@
       <c r="E27" s="57"/>
       <c r="F27" s="49"/>
     </row>
-    <row r="28" spans="1:11" ht="14.5">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <v>10</v>
       </c>
@@ -1576,7 +3763,7 @@
       <c r="E28" s="57"/>
       <c r="F28" s="49"/>
     </row>
-    <row r="29" spans="1:11" ht="14.5">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
         <v>11</v>
       </c>
@@ -1590,7 +3777,7 @@
       <c r="E29" s="57"/>
       <c r="F29" s="49"/>
     </row>
-    <row r="30" spans="1:11" ht="23">
+    <row r="30" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <v>12</v>
       </c>
@@ -1604,7 +3791,7 @@
       <c r="E30" s="57"/>
       <c r="F30" s="49"/>
     </row>
-    <row r="31" spans="1:11" ht="14.5">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <v>13</v>
       </c>
@@ -1618,7 +3805,7 @@
       <c r="E31" s="57"/>
       <c r="F31" s="49"/>
     </row>
-    <row r="32" spans="1:11" ht="14.5">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="44">
         <v>14</v>
       </c>
@@ -1632,7 +3819,7 @@
       <c r="E32" s="57"/>
       <c r="F32" s="49"/>
     </row>
-    <row r="33" spans="1:6" ht="14.5">
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <v>15</v>
       </c>
@@ -1646,7 +3833,7 @@
       <c r="E33" s="57"/>
       <c r="F33" s="49"/>
     </row>
-    <row r="34" spans="1:6" ht="14.5">
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
         <v>16</v>
       </c>
@@ -1660,7 +3847,7 @@
       <c r="E34" s="57"/>
       <c r="F34" s="49"/>
     </row>
-    <row r="35" spans="1:6" ht="14.5">
+    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <v>17</v>
       </c>
@@ -1674,7 +3861,7 @@
       <c r="E35" s="57"/>
       <c r="F35" s="49"/>
     </row>
-    <row r="36" spans="1:6" ht="14.5">
+    <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
         <v>18</v>
       </c>
@@ -1688,7 +3875,7 @@
       <c r="E36" s="57"/>
       <c r="F36" s="49"/>
     </row>
-    <row r="37" spans="1:6" ht="14.5">
+    <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="44">
         <v>19</v>
       </c>
@@ -1702,7 +3889,7 @@
       <c r="E37" s="57"/>
       <c r="F37" s="49"/>
     </row>
-    <row r="38" spans="1:6" ht="14.5">
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
         <v>20</v>
       </c>
@@ -1716,7 +3903,7 @@
       <c r="E38" s="57"/>
       <c r="F38" s="49"/>
     </row>
-    <row r="39" spans="1:6" ht="23">
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="44">
         <v>21</v>
       </c>
@@ -1730,7 +3917,7 @@
       <c r="E39" s="57"/>
       <c r="F39" s="49"/>
     </row>
-    <row r="40" spans="1:6" ht="14.5">
+    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
         <v>22</v>
       </c>
@@ -1744,7 +3931,7 @@
       <c r="E40" s="57"/>
       <c r="F40" s="49"/>
     </row>
-    <row r="41" spans="1:6" ht="14.5">
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="44">
         <v>23</v>
       </c>
@@ -1758,7 +3945,7 @@
       <c r="E41" s="57"/>
       <c r="F41" s="49"/>
     </row>
-    <row r="42" spans="1:6" ht="14.5">
+    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
         <v>24</v>
       </c>
@@ -1772,7 +3959,7 @@
       <c r="E42" s="57"/>
       <c r="F42" s="49"/>
     </row>
-    <row r="43" spans="1:6" ht="14.5">
+    <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="44">
         <v>25</v>
       </c>
@@ -1786,7 +3973,7 @@
       <c r="E43" s="57"/>
       <c r="F43" s="49"/>
     </row>
-    <row r="44" spans="1:6" ht="14.5">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
         <v>26</v>
       </c>
@@ -1800,7 +3987,7 @@
       <c r="E44" s="57"/>
       <c r="F44" s="49"/>
     </row>
-    <row r="45" spans="1:6" ht="14.5">
+    <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="44">
         <v>27</v>
       </c>
@@ -1814,7 +4001,7 @@
       <c r="E45" s="57"/>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:6" ht="14.5">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
         <v>28</v>
       </c>
@@ -1828,7 +4015,7 @@
       <c r="E46" s="57"/>
       <c r="F46" s="49"/>
     </row>
-    <row r="47" spans="1:6" ht="23">
+    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="44">
         <v>29</v>
       </c>
@@ -1842,7 +4029,7 @@
       <c r="E47" s="57"/>
       <c r="F47" s="49"/>
     </row>
-    <row r="48" spans="1:6" ht="14.5">
+    <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
         <v>30</v>
       </c>
@@ -1856,7 +4043,7 @@
       <c r="E48" s="57"/>
       <c r="F48" s="49"/>
     </row>
-    <row r="49" spans="1:6" ht="14.5">
+    <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
         <v>31</v>
       </c>
@@ -1870,7 +4057,7 @@
       <c r="E49" s="57"/>
       <c r="F49" s="49"/>
     </row>
-    <row r="50" spans="1:6" ht="14.5">
+    <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>32</v>
       </c>
@@ -1884,7 +4071,7 @@
       <c r="E50" s="57"/>
       <c r="F50" s="49"/>
     </row>
-    <row r="51" spans="1:6" ht="14.5">
+    <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="44">
         <v>33</v>
       </c>
@@ -1898,7 +4085,7 @@
       <c r="E51" s="57"/>
       <c r="F51" s="49"/>
     </row>
-    <row r="52" spans="1:6" ht="14.5">
+    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>34</v>
       </c>
@@ -1912,7 +4099,7 @@
       <c r="E52" s="57"/>
       <c r="F52" s="49"/>
     </row>
-    <row r="53" spans="1:6" ht="14.5">
+    <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
         <v>35</v>
       </c>
@@ -1926,7 +4113,7 @@
       <c r="E53" s="57"/>
       <c r="F53" s="49"/>
     </row>
-    <row r="54" spans="1:6" ht="14.5">
+    <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="44">
         <v>36</v>
       </c>
@@ -1940,7 +4127,7 @@
       <c r="E54" s="57"/>
       <c r="F54" s="49"/>
     </row>
-    <row r="55" spans="1:6" ht="23">
+    <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A55" s="44">
         <v>37</v>
       </c>
@@ -1954,7 +4141,7 @@
       <c r="E55" s="57"/>
       <c r="F55" s="49"/>
     </row>
-    <row r="56" spans="1:6" ht="14.5">
+    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>38</v>
       </c>
@@ -1988,7 +4175,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="511" yWindow="802" count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Score for report is between 0 to 100_x000a_" sqref="E19:E56">
       <formula1>0</formula1>
@@ -2003,27 +4190,1940 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="62"/>
+    <col min="5" max="5" width="16.5703125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="62" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="62" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="64">
+        <v>1</v>
+      </c>
+      <c r="B2" s="65">
+        <f>Marks!K2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="64">
+        <v>2</v>
+      </c>
+      <c r="B3" s="65">
+        <f>Marks!K3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="69">
+        <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="64">
+        <v>3</v>
+      </c>
+      <c r="B4" s="65">
+        <f>Marks!K4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="70">
+        <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
+        <v>31.515151515151516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="64">
+        <v>4</v>
+      </c>
+      <c r="B5" s="65">
+        <f>Marks!K5</f>
+        <v>78</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="71">
+        <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
+        <v>35.515068291607939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="64">
+        <v>5</v>
+      </c>
+      <c r="B6" s="65">
+        <f>Marks!K6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="64">
+        <v>6</v>
+      </c>
+      <c r="B7" s="65">
+        <f>Marks!K7</f>
+        <v>70</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="F7" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
+        <v>7</v>
+      </c>
+      <c r="B8" s="65">
+        <f>Marks!K8</f>
+        <v>70</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="73">
+        <v>5</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="74">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>8</v>
+      </c>
+      <c r="B9" s="65">
+        <f>Marks!K9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" s="73">
+        <v>5</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65">
+        <f>Marks!K10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="73">
+        <v>4.5</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <f>Marks!K11</f>
+        <v>84</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" s="73">
+        <v>4</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
+        <v>11</v>
+      </c>
+      <c r="B12" s="65">
+        <f>Marks!K12</f>
+        <v>75</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="73">
+        <v>3.5</v>
+      </c>
+      <c r="H12" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="I12" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>12</v>
+      </c>
+      <c r="B13" s="65">
+        <f>Marks!K13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="73">
+        <v>3</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
+        <v>0.15151515151515152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
+        <v>13</v>
+      </c>
+      <c r="B14" s="65">
+        <f>Marks!K14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="73">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
+        <v>14</v>
+      </c>
+      <c r="B15" s="65">
+        <f>Marks!K15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="G15" s="73">
+        <v>2</v>
+      </c>
+      <c r="H15" s="62" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
+        <v>3.0303030303030304E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
+        <v>15</v>
+      </c>
+      <c r="B16" s="65">
+        <f>Marks!K16</f>
+        <v>61</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F16" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="I16" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
+        <v>16</v>
+      </c>
+      <c r="B17" s="65">
+        <f>Marks!K17</f>
+        <v>64</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="73">
+        <v>1</v>
+      </c>
+      <c r="H17" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="75">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64">
+        <v>17</v>
+      </c>
+      <c r="B18" s="65">
+        <f>Marks!K18</f>
+        <v>60</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="76">
+        <v>0</v>
+      </c>
+      <c r="H18" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" s="77">
+        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
+        <v>18</v>
+      </c>
+      <c r="B19" s="65">
+        <f>Marks!K19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
+        <v>19</v>
+      </c>
+      <c r="B20" s="65">
+        <f>Marks!K20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
+        <v>20</v>
+      </c>
+      <c r="B21" s="65">
+        <f>Marks!K21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
+        <v>21</v>
+      </c>
+      <c r="B22" s="65">
+        <f>Marks!K22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
+        <v>22</v>
+      </c>
+      <c r="B23" s="65">
+        <f>Marks!K23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
+        <v>23</v>
+      </c>
+      <c r="B24" s="65">
+        <f>Marks!K24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
+        <v>24</v>
+      </c>
+      <c r="B25" s="65">
+        <f>Marks!K25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
+        <v>25</v>
+      </c>
+      <c r="B26" s="65">
+        <f>Marks!K26</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>26</v>
+      </c>
+      <c r="B27" s="65">
+        <f>Marks!K27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
+        <v>27</v>
+      </c>
+      <c r="B28" s="65">
+        <f>Marks!K28</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <v>28</v>
+      </c>
+      <c r="B29" s="65">
+        <f>Marks!K29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>29</v>
+      </c>
+      <c r="B30" s="65">
+        <f>Marks!K30</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
+        <v>30</v>
+      </c>
+      <c r="B31" s="65">
+        <f>Marks!K31</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
+        <v>31</v>
+      </c>
+      <c r="B32" s="65">
+        <f>Marks!K32</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
+        <v>32</v>
+      </c>
+      <c r="B33" s="65">
+        <f>Marks!K33</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
+        <v>33</v>
+      </c>
+      <c r="B34" s="65">
+        <f>Marks!K34</f>
+        <v>63</v>
+      </c>
+      <c r="D34" s="134" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="134"/>
+      <c r="I34" s="134"/>
+      <c r="J34" s="134"/>
+      <c r="K34" s="134"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
+        <v>34</v>
+      </c>
+      <c r="B35" s="65"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
+        <v>35</v>
+      </c>
+      <c r="B36" s="65"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
+        <v>36</v>
+      </c>
+      <c r="B37" s="65"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <v>37</v>
+      </c>
+      <c r="B38" s="65"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
+        <v>38</v>
+      </c>
+      <c r="B39" s="65"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="64">
+        <v>39</v>
+      </c>
+      <c r="B40" s="65"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="64">
+        <v>40</v>
+      </c>
+      <c r="B41" s="65"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="64">
+        <v>41</v>
+      </c>
+      <c r="B42" s="65"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="64">
+        <v>42</v>
+      </c>
+      <c r="B43" s="65"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="64">
+        <v>43</v>
+      </c>
+      <c r="B44" s="65"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="64">
+        <v>44</v>
+      </c>
+      <c r="B45" s="65"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="64">
+        <v>45</v>
+      </c>
+      <c r="B46" s="65"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="64">
+        <v>46</v>
+      </c>
+      <c r="B47" s="65"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="64">
+        <v>47</v>
+      </c>
+      <c r="B48" s="65"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="64">
+        <v>48</v>
+      </c>
+      <c r="B49" s="65"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="64">
+        <v>49</v>
+      </c>
+      <c r="B50" s="65"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="64">
+        <v>50</v>
+      </c>
+      <c r="B51" s="65"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="64">
+        <v>51</v>
+      </c>
+      <c r="B52" s="65"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="64">
+        <v>52</v>
+      </c>
+      <c r="B53" s="65"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="64">
+        <v>53</v>
+      </c>
+      <c r="B54" s="65"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="64">
+        <v>54</v>
+      </c>
+      <c r="B55" s="65"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="64">
+        <v>55</v>
+      </c>
+      <c r="B56" s="65"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="64">
+        <v>56</v>
+      </c>
+      <c r="B57" s="65"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="64">
+        <v>57</v>
+      </c>
+      <c r="B58" s="65"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="64">
+        <v>58</v>
+      </c>
+      <c r="B59" s="65"/>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="64">
+        <v>59</v>
+      </c>
+      <c r="B60" s="65"/>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="78">
+        <v>60</v>
+      </c>
+      <c r="B61" s="79"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="D34:K34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>"or(""&lt;60"",""&gt;64"")"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="87" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" style="86" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="10" width="13.5703125" style="86" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.5703125" style="86" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="86"/>
+    <col min="13" max="16384" width="9.140625" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="93">
+        <f t="shared" ref="K2:K34" si="0">SUM(D2:J2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="94" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="97"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="95" t="s">
+        <v>184</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="112" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="113"/>
+      <c r="C5" s="114" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="112">
+        <f>3+5+5+9+2</f>
+        <v>24</v>
+      </c>
+      <c r="E5" s="115">
+        <f>5+3+4</f>
+        <v>12</v>
+      </c>
+      <c r="F5" s="115">
+        <v>3</v>
+      </c>
+      <c r="G5" s="115">
+        <v>14</v>
+      </c>
+      <c r="H5" s="115">
+        <v>8</v>
+      </c>
+      <c r="I5" s="115">
+        <v>9</v>
+      </c>
+      <c r="J5" s="115">
+        <v>8</v>
+      </c>
+      <c r="K5" s="116">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="L5" s="80"/>
+    </row>
+    <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
+      <c r="J6" s="104"/>
+      <c r="K6" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="91">
+        <f>3+6+5+11+2</f>
+        <v>27</v>
+      </c>
+      <c r="E7" s="92">
+        <f>5+3+4</f>
+        <v>12</v>
+      </c>
+      <c r="F7" s="92">
+        <v>1</v>
+      </c>
+      <c r="G7" s="92">
+        <v>9</v>
+      </c>
+      <c r="H7" s="92">
+        <v>6</v>
+      </c>
+      <c r="I7" s="92">
+        <v>8</v>
+      </c>
+      <c r="J7" s="92">
+        <v>7</v>
+      </c>
+      <c r="K7" s="93">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="97">
+        <f>4+6+5+12+2</f>
+        <v>29</v>
+      </c>
+      <c r="E8" s="98">
+        <f>3+4+4</f>
+        <v>11</v>
+      </c>
+      <c r="F8" s="98">
+        <v>4</v>
+      </c>
+      <c r="G8" s="98">
+        <v>13</v>
+      </c>
+      <c r="H8" s="98">
+        <v>6</v>
+      </c>
+      <c r="I8" s="98">
+        <v>7</v>
+      </c>
+      <c r="J8" s="98">
+        <v>0</v>
+      </c>
+      <c r="K8" s="99">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="101" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="103"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>187</v>
+      </c>
+      <c r="C11" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="109">
+        <f>3+5+5+13+2</f>
+        <v>28</v>
+      </c>
+      <c r="E11" s="110">
+        <f>5+4+5</f>
+        <v>14</v>
+      </c>
+      <c r="F11" s="110">
+        <v>4</v>
+      </c>
+      <c r="G11" s="110">
+        <v>14</v>
+      </c>
+      <c r="H11" s="110">
+        <v>7</v>
+      </c>
+      <c r="I11" s="110">
+        <v>10</v>
+      </c>
+      <c r="J11" s="110">
+        <v>7</v>
+      </c>
+      <c r="K11" s="111">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="101" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="102" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="103">
+        <f>4+6+6+11+2</f>
+        <v>29</v>
+      </c>
+      <c r="E12" s="104">
+        <f>5+4+5</f>
+        <v>14</v>
+      </c>
+      <c r="F12" s="104">
+        <v>2</v>
+      </c>
+      <c r="G12" s="104">
+        <v>9</v>
+      </c>
+      <c r="H12" s="104">
+        <v>6</v>
+      </c>
+      <c r="I12" s="104">
+        <v>8</v>
+      </c>
+      <c r="J12" s="104">
+        <v>7</v>
+      </c>
+      <c r="K12" s="105">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="L12" s="86"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="88" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="103"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="91">
+        <f>2+0+3+13+2</f>
+        <v>20</v>
+      </c>
+      <c r="E16" s="92">
+        <f>3+3+3</f>
+        <v>9</v>
+      </c>
+      <c r="F16" s="92">
+        <v>4</v>
+      </c>
+      <c r="G16" s="92">
+        <v>10</v>
+      </c>
+      <c r="H16" s="92">
+        <v>4</v>
+      </c>
+      <c r="I16" s="92">
+        <v>7</v>
+      </c>
+      <c r="J16" s="92">
+        <v>7</v>
+      </c>
+      <c r="K16" s="93">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="97">
+        <f>3+5+6+11+1</f>
+        <v>26</v>
+      </c>
+      <c r="E17" s="98">
+        <f>4+4+3</f>
+        <v>11</v>
+      </c>
+      <c r="F17" s="98">
+        <v>2</v>
+      </c>
+      <c r="G17" s="98">
+        <v>10</v>
+      </c>
+      <c r="H17" s="98">
+        <v>8</v>
+      </c>
+      <c r="I17" s="98">
+        <v>6</v>
+      </c>
+      <c r="J17" s="98">
+        <v>1</v>
+      </c>
+      <c r="K17" s="99">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="94" t="s">
+        <v>161</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="97">
+        <f>2+9+6+5+2</f>
+        <v>24</v>
+      </c>
+      <c r="E18" s="98">
+        <f>4+3+4</f>
+        <v>11</v>
+      </c>
+      <c r="F18" s="98">
+        <v>4</v>
+      </c>
+      <c r="G18" s="98">
+        <v>4</v>
+      </c>
+      <c r="H18" s="98">
+        <v>5</v>
+      </c>
+      <c r="I18" s="98">
+        <v>6</v>
+      </c>
+      <c r="J18" s="98">
+        <v>6</v>
+      </c>
+      <c r="K18" s="99">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="91"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="C21" s="96" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="103"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="105">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="91"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="97">
+        <f>4+2+7+2</f>
+        <v>15</v>
+      </c>
+      <c r="E26" s="98">
+        <f>5+3+2</f>
+        <v>10</v>
+      </c>
+      <c r="F26" s="98">
+        <v>3</v>
+      </c>
+      <c r="G26" s="98">
+        <v>9</v>
+      </c>
+      <c r="H26" s="98">
+        <v>12</v>
+      </c>
+      <c r="I26" s="98">
+        <v>7</v>
+      </c>
+      <c r="J26" s="98">
+        <v>5</v>
+      </c>
+      <c r="K26" s="99">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="98"/>
+      <c r="J27" s="98"/>
+      <c r="K27" s="99">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="103">
+        <f>3+6+3+6+2</f>
+        <v>20</v>
+      </c>
+      <c r="E28" s="104">
+        <f>4+4+4</f>
+        <v>12</v>
+      </c>
+      <c r="F28" s="104">
+        <v>2</v>
+      </c>
+      <c r="G28" s="104">
+        <v>9</v>
+      </c>
+      <c r="H28" s="104">
+        <v>5</v>
+      </c>
+      <c r="I28" s="104">
+        <v>3</v>
+      </c>
+      <c r="J28" s="104">
+        <v>3</v>
+      </c>
+      <c r="K28" s="105">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="90" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="91"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="93">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="86">
+        <f>1+15+4+15+10+25+15+15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="97">
+        <f>3+6+6+11+2</f>
+        <v>28</v>
+      </c>
+      <c r="E30" s="98">
+        <f>4+3+4</f>
+        <v>11</v>
+      </c>
+      <c r="F30" s="98">
+        <v>3</v>
+      </c>
+      <c r="G30" s="98">
+        <v>10</v>
+      </c>
+      <c r="H30" s="98">
+        <v>7</v>
+      </c>
+      <c r="I30" s="98">
+        <v>5</v>
+      </c>
+      <c r="J30" s="98">
+        <v>5</v>
+      </c>
+      <c r="K30" s="99">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" s="103">
+        <f>3+6+5+11+2</f>
+        <v>27</v>
+      </c>
+      <c r="E31" s="104">
+        <f>5+4+3</f>
+        <v>12</v>
+      </c>
+      <c r="F31" s="104">
+        <v>4</v>
+      </c>
+      <c r="G31" s="104">
+        <v>13</v>
+      </c>
+      <c r="H31" s="104">
+        <v>6</v>
+      </c>
+      <c r="I31" s="104">
+        <v>9</v>
+      </c>
+      <c r="J31" s="104">
+        <v>7</v>
+      </c>
+      <c r="K31" s="105">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="106" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="107" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="109">
+        <f>3+2+6+13+2</f>
+        <v>26</v>
+      </c>
+      <c r="E32" s="110">
+        <f>5+4+5</f>
+        <v>14</v>
+      </c>
+      <c r="F32" s="110">
+        <v>4</v>
+      </c>
+      <c r="G32" s="110">
+        <v>9</v>
+      </c>
+      <c r="H32" s="110">
+        <v>7</v>
+      </c>
+      <c r="I32" s="110">
+        <v>8</v>
+      </c>
+      <c r="J32" s="110">
+        <v>9</v>
+      </c>
+      <c r="K32" s="111">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="95" t="s">
+        <v>181</v>
+      </c>
+      <c r="C33" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="97">
+        <f>3+6+5+8+2</f>
+        <v>24</v>
+      </c>
+      <c r="E33" s="98">
+        <f>4+4+3</f>
+        <v>11</v>
+      </c>
+      <c r="F33" s="98">
+        <v>4</v>
+      </c>
+      <c r="G33" s="98">
+        <v>14</v>
+      </c>
+      <c r="H33" s="98">
+        <v>7</v>
+      </c>
+      <c r="I33" s="98">
+        <v>7</v>
+      </c>
+      <c r="J33" s="98">
+        <v>9</v>
+      </c>
+      <c r="K33" s="99">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" s="118" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="119" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="120">
+        <f>3+5+5+8+2</f>
+        <v>23</v>
+      </c>
+      <c r="E34" s="121">
+        <f>3+2+4</f>
+        <v>9</v>
+      </c>
+      <c r="F34" s="121">
+        <v>4</v>
+      </c>
+      <c r="G34" s="121">
+        <v>10</v>
+      </c>
+      <c r="H34" s="121">
+        <v>5</v>
+      </c>
+      <c r="I34" s="121">
+        <v>6</v>
+      </c>
+      <c r="J34" s="121">
+        <v>6</v>
+      </c>
+      <c r="K34" s="122">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L33"/>
+  <sortState ref="A2:L34">
+    <sortCondition ref="A2:A34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" style="124" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="124" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="124" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="124" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="124"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" s="123" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="123" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="123" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="123" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="124">
+        <v>6</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="124">
+        <v>5</v>
+      </c>
+      <c r="D2" s="124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="124">
+        <v>4</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="124">
+        <v>5</v>
+      </c>
+      <c r="D3" s="123" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="124">
+        <v>3</v>
+      </c>
+      <c r="B4" s="125" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="124">
+        <v>2</v>
+      </c>
+      <c r="D4" s="123" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="124">
+        <v>2</v>
+      </c>
+      <c r="B5" s="125" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="124">
+        <v>2</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="124">
+        <v>7</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" s="124">
+        <v>4</v>
+      </c>
+      <c r="D6" s="123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="124">
+        <v>5</v>
+      </c>
+      <c r="B7" s="125" t="s">
+        <v>197</v>
+      </c>
+      <c r="C7" s="124">
+        <v>3</v>
+      </c>
+      <c r="D7" s="123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="124">
+        <v>1</v>
+      </c>
+      <c r="B8" s="125" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:F8">
+    <sortCondition ref="D2:D8"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
@@ -1753,35 +1753,35 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -1957,10 +1957,10 @@
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0606060606060608E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.15151515151515152</c:v>
@@ -1978,7 +1978,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.2</c:v>
+                  <c:v>0.83333333333333337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1999,11 +1999,11 @@
         </c:dLbls>
         <c:gapWidth val="41"/>
         <c:overlap val="-27"/>
-        <c:axId val="352412288"/>
-        <c:axId val="401914776"/>
+        <c:axId val="398100912"/>
+        <c:axId val="398098168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="352412288"/>
+        <c:axId val="398100912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401914776"/>
+        <c:crossAx val="398098168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="401914776"/>
+        <c:axId val="398098168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2091,7 +2091,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352412288"/>
+        <c:crossAx val="398100912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2703,7 +2703,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2741,7 @@
         <xdr:cNvPr id="3" name="Down Arrow 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2801,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2870,7 +2870,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3303,21 +3303,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
       <c r="N1" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3325,14 +3325,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="129"/>
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3350,10 +3350,10 @@
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="132" t="s">
+      <c r="G4" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="132"/>
+      <c r="H4" s="128"/>
       <c r="I4" s="2">
         <f>C4+14</f>
         <v>44466</v>
@@ -3370,10 +3370,10 @@
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="130" t="s">
+      <c r="G5" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="130"/>
+      <c r="H5" s="134"/>
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3397,10 +3397,10 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="G7" s="128" t="s">
+      <c r="G7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="128"/>
+      <c r="H7" s="133"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,10 +3438,10 @@
       <c r="A11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="126" t="s">
+      <c r="B11" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="126"/>
+      <c r="C11" s="131"/>
       <c r="D11" s="41" t="s">
         <v>1</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="127" t="s">
+      <c r="B18" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="127"/>
+      <c r="C18" s="132"/>
       <c r="D18" s="41" t="s">
         <v>1</v>
       </c>
@@ -3613,7 +3613,7 @@
       <c r="D20" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="135"/>
+      <c r="E20" s="126"/>
       <c r="F20" s="49"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -3632,7 +3632,7 @@
       <c r="D21" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="135"/>
+      <c r="E21" s="126"/>
       <c r="F21" s="49"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -4164,16 +4164,16 @@
     <sortCondition ref="B19:B56"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C3:H3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G5:H5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="511" yWindow="802" count="1">
@@ -4240,7 +4240,7 @@
       </c>
       <c r="B3" s="65">
         <f>Marks!K3</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E3" s="68" t="s">
         <v>104</v>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="F4" s="70">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>31.515151515151516</v>
+        <v>37.787878787878789</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4279,7 +4279,7 @@
       </c>
       <c r="F5" s="71">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>35.515068291607939</v>
+        <v>35.498025980114001</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="I11" s="75">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>6.0606060606060608E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="I12" s="75">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>3.0303030303030304E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="I18" s="77">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>1.2</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4655,7 +4655,7 @@
       </c>
       <c r="B25" s="65">
         <f>Marks!K25</f>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4673,7 +4673,7 @@
       </c>
       <c r="B27" s="65">
         <f>Marks!K27</f>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4738,16 +4738,16 @@
         <f>Marks!K34</f>
         <v>63</v>
       </c>
-      <c r="D34" s="134" t="s">
+      <c r="D34" s="135" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
-      <c r="K34" s="134"/>
+      <c r="E34" s="135"/>
+      <c r="F34" s="135"/>
+      <c r="G34" s="135"/>
+      <c r="H34" s="135"/>
+      <c r="I34" s="135"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="135"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="64">
@@ -4941,7 +4941,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
@@ -5026,16 +5026,32 @@
       <c r="C3" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="97"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
+      <c r="D3" s="97">
+        <f>3+5+2+11+2</f>
+        <v>23</v>
+      </c>
+      <c r="E3" s="98">
+        <f>4+5+4</f>
+        <v>13</v>
+      </c>
+      <c r="F3" s="98">
+        <v>3</v>
+      </c>
+      <c r="G3" s="98">
+        <v>9</v>
+      </c>
+      <c r="H3" s="98">
+        <v>8</v>
+      </c>
+      <c r="I3" s="98">
+        <v>6</v>
+      </c>
+      <c r="J3" s="98">
+        <v>5</v>
+      </c>
       <c r="K3" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5638,16 +5654,32 @@
       <c r="C25" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
+      <c r="D25" s="91">
+        <f>3+5+5+13+2</f>
+        <v>28</v>
+      </c>
+      <c r="E25" s="92">
+        <f>5+4+5</f>
+        <v>14</v>
+      </c>
+      <c r="F25" s="92">
+        <v>2</v>
+      </c>
+      <c r="G25" s="92">
+        <v>10</v>
+      </c>
+      <c r="H25" s="92">
+        <v>4</v>
+      </c>
+      <c r="I25" s="92">
+        <v>3</v>
+      </c>
+      <c r="J25" s="92">
+        <v>6</v>
+      </c>
       <c r="K25" s="93">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -5698,16 +5730,32 @@
       <c r="C27" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
+      <c r="D27" s="97">
+        <f>4+4+6+11+2</f>
+        <v>27</v>
+      </c>
+      <c r="E27" s="98">
+        <f>5+4+3</f>
+        <v>12</v>
+      </c>
+      <c r="F27" s="98">
+        <v>3</v>
+      </c>
+      <c r="G27" s="98">
+        <v>10</v>
+      </c>
+      <c r="H27" s="98">
+        <v>7</v>
+      </c>
+      <c r="I27" s="98">
+        <v>6</v>
+      </c>
+      <c r="J27" s="98">
+        <v>8</v>
+      </c>
       <c r="K27" s="99">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">

--- a/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
+++ b/SuSS/ANL252_Python_4_Biz/3_Lecturer/4_ECA/ANL252 ECA Score Sheet SBIZ T09 MunishKumar.xlsx
@@ -1,33 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\ANL252_Python_4_Biz\3_Lecturer\4_ECA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\ANL252_Python_4_Biz\3_Lecturer\4_ECA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2179022-4D45-4248-A50B-68A6BF812BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20175" windowHeight="9915" activeTab="2"/>
+    <workbookView xWindow="13005" yWindow="2760" windowWidth="11400" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Input Mark" sheetId="4" r:id="rId2"/>
     <sheet name="Marks" sheetId="5" r:id="rId3"/>
-    <sheet name="Bloom" sheetId="2" r:id="rId4"/>
-    <sheet name="Analytics per Qn" sheetId="3" r:id="rId5"/>
+    <sheet name="Analytics per Qn" sheetId="3" r:id="rId4"/>
+    <sheet name="Stats" sheetId="2" r:id="rId5"/>
+    <sheet name="Bloom" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Marks!$A$1:$L$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$18:$18</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'Analytics per Qn'!$M$1</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="221">
   <si>
     <t>S/N</t>
   </si>
@@ -466,9 +486,6 @@
     <t>Question 1a</t>
   </si>
   <si>
-    <t>Question 1b</t>
-  </si>
-  <si>
     <t>Question 1c</t>
   </si>
   <si>
@@ -610,71 +627,113 @@
     <t>Question Number</t>
   </si>
   <si>
-    <t xml:space="preserve">Differentiate the various aspects
-of Python programming.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss how Python manages
-packages, modules, functions, etc.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain the operations on arrays
-and datasets.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design Python programmes for
-performing data analytics.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employ logic control flows in
-Python programmes.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prepare data for analysis using
-Python programming.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse data using appropriate
+    <t>2a</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Pass Rate</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Sample Variance</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Confidence Level(95.0%)</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Prepare data for analysis using
+Python programming.</t>
+  </si>
+  <si>
+    <t>Design Python programmes for
+performing data analytics.</t>
+  </si>
+  <si>
+    <t>Explain the operations on arrays
+and datasets.</t>
+  </si>
+  <si>
+    <t>Discuss how Python manages
+packages, modules, functions, etc.</t>
+  </si>
+  <si>
+    <t>Analyse data using appropriate
 tools and techniques with Python
-programming.
-</t>
-  </si>
-  <si>
-    <t>2a</t>
-  </si>
-  <si>
-    <t>1c</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>2c</t>
-  </si>
-  <si>
-    <t>2b</t>
-  </si>
-  <si>
-    <t>Pass Rate</t>
+programming.</t>
+  </si>
+  <si>
+    <t>Employ logic control flows in
+Python programmes.</t>
+  </si>
+  <si>
+    <t>Differentiate the various aspects
+of Python programming.</t>
+  </si>
+  <si>
+    <t>Mean Score</t>
+  </si>
+  <si>
+    <t>No Submission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -814,8 +873,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -870,8 +935,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1405,6 +1476,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1412,7 +1494,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1580,7 +1662,6 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1750,10 +1831,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1784,10 +1937,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Percent 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Percent 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1811,7 +1964,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1850,7 +2003,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1951,25 +2103,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>6.0606060606060608E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0.21212121212121213</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.15151515151515152</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.0909090909090912E-2</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15151515151515152</c:v>
+                  <c:v>0.24242424242424243</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0303030303030304E-2</c:v>
+                  <c:v>0.12121212121212122</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -1978,12 +2130,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.83333333333333337</c:v>
+                  <c:v>3.0303030303030304E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-39FF-473B-BEE7-83D83E1872D7}"/>
             </c:ext>
@@ -2140,7 +2292,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Input Mark'!$H$8:$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>85-100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80-84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75-79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70-74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&lt;40</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Input Mark'!$J$8:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DBB7-421E-B39A-23244B58561E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="41"/>
+        <c:overlap val="-27"/>
+        <c:axId val="398100912"/>
+        <c:axId val="398098168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="398100912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398098168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398098168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398100912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2683,6 +3204,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2703,7 +3727,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2725,271 +3749,42 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Down Arrow 2">
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF1BE650-EF16-465A-BE26-70D5DA7551CB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8029575" y="5038725"/>
-          <a:ext cx="990600" cy="1323975"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7848600" y="4076701"/>
-          <a:ext cx="1333500" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>New for Jan2020 semester, please read!</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="6877051" cy="3419475"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B61C8A3-CE36-4488-A166-251A0E7FEE9D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2657474" y="6886575"/>
-          <a:ext cx="6877051" cy="3419475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>Each marker must check ALL Turnitin reports, and provide a short explanation of finding/action for only TMA or GBA assignment with unusually high Turnitin scores. Note that there is NO fixed threshold to define a high or low Turnitin score, as it depends on the characteristics of the assignment (e.g., length of the report, nature of the assignment, etc.). </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>For example, if most students have a score less than 20%, and now you see a report with 35% Turnitin score, you should explain why the score is so different. Some possible finding/actions include:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(1) student copied assignment questions into the report.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(2j student has a set of standard references commonly used by others</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(3) student has a large chunk of text cited using verbatim quote</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(4) student included an article as supplement of assignment</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(5) student did not use good paraphrasing technique, and you has penalised the work with mark deduction</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>(6) suspected plagiarism case. You have submitted it to the exam department for investigation.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>Format for reporting cases with high Turnitin score</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>Student name, pi number, Turnitin score, Action/finding</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-SG" sz="1100"/>
-            <a:t>Course coordinator will need to verify marker submission. HoP will do random sampling of such cases to check.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-SG" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3069,6 +3864,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3104,6 +3916,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3279,14 +4108,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3295,7 +4124,8 @@
     <col min="2" max="2" width="22.7109375" style="7" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" style="7" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="7" customWidth="1"/>
-    <col min="6" max="7" width="8.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="7" customWidth="1"/>
     <col min="8" max="8" width="7.42578125" style="7" customWidth="1"/>
     <col min="9" max="12" width="9.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="18" style="7" customWidth="1"/>
@@ -3303,36 +4133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="H1" s="149"/>
+      <c r="I1" s="149"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="149"/>
+      <c r="M1" s="149"/>
       <c r="N1" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="130" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -3340,40 +4170,40 @@
       <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="129"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="54">
         <v>44452</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="128" t="s">
+      <c r="G4" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="128"/>
+      <c r="H4" s="150"/>
       <c r="I4" s="2">
         <f>C4+14</f>
         <v>44466</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="129"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="52" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="134"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
@@ -3397,10 +4227,10 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="133"/>
+      <c r="H7" s="155"/>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -3438,10 +4268,10 @@
       <c r="A11" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="131"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="41" t="s">
         <v>1</v>
       </c>
@@ -3569,10 +4399,10 @@
       <c r="A18" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="132"/>
+      <c r="C18" s="154"/>
       <c r="D18" s="41" t="s">
         <v>1</v>
       </c>
@@ -3587,14 +4417,16 @@
       <c r="A19" s="44">
         <v>1</v>
       </c>
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="58" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="57"/>
+      <c r="E19" s="124">
+        <v>50</v>
+      </c>
       <c r="F19" s="49"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -3606,14 +4438,16 @@
       <c r="A20" s="44">
         <v>2</v>
       </c>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="59"/>
-      <c r="D20" s="58" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="126"/>
+      <c r="E20" s="125">
+        <v>67</v>
+      </c>
       <c r="F20" s="49"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -3625,14 +4459,16 @@
       <c r="A21" s="44">
         <v>3</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="58" t="s">
+      <c r="C21" s="58"/>
+      <c r="D21" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E21" s="126"/>
+      <c r="E21" s="125">
+        <v>50</v>
+      </c>
       <c r="F21" s="49"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -3644,14 +4480,16 @@
       <c r="A22" s="44">
         <v>4</v>
       </c>
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="57"/>
+      <c r="E22" s="124">
+        <v>60</v>
+      </c>
       <c r="F22" s="49"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3663,14 +4501,16 @@
       <c r="A23" s="44">
         <v>5</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="58" t="s">
+      <c r="C23" s="58"/>
+      <c r="D23" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="124">
+        <v>78</v>
+      </c>
       <c r="F23" s="49"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3682,14 +4522,16 @@
       <c r="A24" s="44">
         <v>6</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="58" t="s">
+      <c r="C24" s="58"/>
+      <c r="D24" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" s="124">
+        <v>63</v>
+      </c>
       <c r="F24" s="49"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3701,14 +4543,16 @@
       <c r="A25" s="44">
         <v>7</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="58" t="s">
+      <c r="C25" s="58"/>
+      <c r="D25" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="124">
+        <v>70</v>
+      </c>
       <c r="F25" s="49"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3720,14 +4564,16 @@
       <c r="A26" s="44">
         <v>8</v>
       </c>
-      <c r="B26" s="58" t="s">
+      <c r="B26" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="58" t="s">
+      <c r="C26" s="58"/>
+      <c r="D26" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="124">
+        <v>70</v>
+      </c>
       <c r="F26" s="49"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3739,420 +4585,490 @@
       <c r="A27" s="44">
         <v>9</v>
       </c>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="58" t="s">
+      <c r="C27" s="58"/>
+      <c r="D27" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="57"/>
+      <c r="E27" s="124">
+        <v>82</v>
+      </c>
       <c r="F27" s="49"/>
     </row>
     <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="44">
         <v>10</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="58" t="s">
+      <c r="C28" s="58"/>
+      <c r="D28" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="124">
+        <v>60</v>
+      </c>
       <c r="F28" s="49"/>
     </row>
     <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="44">
         <v>11</v>
       </c>
-      <c r="B29" s="58" t="s">
+      <c r="B29" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="58" t="s">
+      <c r="C29" s="58"/>
+      <c r="D29" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="124">
+        <v>84</v>
+      </c>
       <c r="F29" s="49"/>
     </row>
-    <row r="30" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="33" x14ac:dyDescent="0.25">
       <c r="A30" s="44">
         <v>12</v>
       </c>
-      <c r="B30" s="58" t="s">
+      <c r="B30" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="58" t="s">
+      <c r="C30" s="58"/>
+      <c r="D30" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="49"/>
+      <c r="E30" s="124">
+        <v>0</v>
+      </c>
+      <c r="F30" s="144" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="44">
         <v>13</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="58" t="s">
+      <c r="C31" s="58"/>
+      <c r="D31" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="57"/>
+      <c r="E31" s="124">
+        <v>75</v>
+      </c>
       <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="44">
         <v>14</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58" t="s">
+      <c r="C32" s="58"/>
+      <c r="D32" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="57"/>
+      <c r="E32" s="124">
+        <v>62</v>
+      </c>
       <c r="F32" s="49"/>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="44">
         <v>15</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="58" t="s">
+      <c r="C33" s="58"/>
+      <c r="D33" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E33" s="57"/>
+      <c r="E33" s="124">
+        <v>75</v>
+      </c>
       <c r="F33" s="49"/>
     </row>
     <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="44">
         <v>16</v>
       </c>
-      <c r="B34" s="58" t="s">
+      <c r="B34" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="58" t="s">
+      <c r="C34" s="58"/>
+      <c r="D34" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="57"/>
+      <c r="E34" s="124">
+        <v>74</v>
+      </c>
       <c r="F34" s="49"/>
     </row>
     <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="44">
         <v>17</v>
       </c>
-      <c r="B35" s="58" t="s">
+      <c r="B35" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="58" t="s">
+      <c r="C35" s="58"/>
+      <c r="D35" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E35" s="57"/>
+      <c r="E35" s="124">
+        <v>61</v>
+      </c>
       <c r="F35" s="49"/>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="44">
         <v>18</v>
       </c>
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="58" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="57"/>
+      <c r="E36" s="124">
+        <v>64</v>
+      </c>
       <c r="F36" s="49"/>
     </row>
     <row r="37" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="44">
         <v>19</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="58" t="s">
+      <c r="C37" s="58"/>
+      <c r="D37" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="E37" s="57"/>
+      <c r="E37" s="124">
+        <v>53</v>
+      </c>
       <c r="F37" s="49"/>
     </row>
     <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="44">
         <v>20</v>
       </c>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="58" t="s">
+      <c r="C38" s="58"/>
+      <c r="D38" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="57"/>
+      <c r="E38" s="124">
+        <v>68</v>
+      </c>
       <c r="F38" s="49"/>
     </row>
     <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="44">
         <v>21</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="58" t="s">
+      <c r="C39" s="58"/>
+      <c r="D39" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="57"/>
+      <c r="E39" s="124">
+        <v>74</v>
+      </c>
       <c r="F39" s="49"/>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="44">
         <v>22</v>
       </c>
-      <c r="B40" s="58" t="s">
+      <c r="B40" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="58" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="57"/>
+      <c r="E40" s="124">
+        <v>67</v>
+      </c>
       <c r="F40" s="49"/>
     </row>
     <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="44">
         <v>23</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="58" t="s">
+      <c r="C41" s="58"/>
+      <c r="D41" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="E41" s="57"/>
+      <c r="E41" s="124">
+        <v>68</v>
+      </c>
       <c r="F41" s="49"/>
     </row>
     <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="44">
         <v>24</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="59"/>
-      <c r="D42" s="58" t="s">
+      <c r="C42" s="58"/>
+      <c r="D42" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="124">
+        <v>78</v>
+      </c>
       <c r="F42" s="49"/>
     </row>
     <row r="43" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="44">
         <v>25</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="58" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E43" s="57"/>
+      <c r="E43" s="124">
+        <v>67</v>
+      </c>
       <c r="F43" s="49"/>
     </row>
-    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A44" s="44">
         <v>26</v>
       </c>
-      <c r="B44" s="58" t="s">
+      <c r="B44" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="59"/>
-      <c r="D44" s="58" t="s">
+      <c r="C44" s="58"/>
+      <c r="D44" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="49"/>
+      <c r="E44" s="124">
+        <v>0</v>
+      </c>
+      <c r="F44" s="144" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="45" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="44">
         <v>27</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="58" t="s">
+      <c r="C45" s="58"/>
+      <c r="D45" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="57"/>
+      <c r="E45" s="124">
+        <v>61</v>
+      </c>
       <c r="F45" s="49"/>
     </row>
-    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A46" s="44">
         <v>28</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="58" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="57"/>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="E46" s="124">
+        <v>0</v>
+      </c>
+      <c r="F46" s="144" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A47" s="44">
         <v>29</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="58" t="s">
+      <c r="C47" s="58"/>
+      <c r="D47" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="57"/>
-      <c r="F47" s="49"/>
+      <c r="E47" s="124">
+        <v>0</v>
+      </c>
+      <c r="F47" s="144" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="44">
         <v>30</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="58" t="s">
+      <c r="C48" s="58"/>
+      <c r="D48" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="124">
+        <v>73</v>
+      </c>
       <c r="F48" s="49"/>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="44">
         <v>31</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="58" t="s">
+      <c r="C49" s="58"/>
+      <c r="D49" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="E49" s="57"/>
+      <c r="E49" s="124">
+        <v>54</v>
+      </c>
       <c r="F49" s="49"/>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="44">
         <v>32</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="58" t="s">
+      <c r="C50" s="58"/>
+      <c r="D50" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E50" s="57"/>
+      <c r="E50" s="124">
+        <v>8</v>
+      </c>
       <c r="F50" s="49"/>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="44">
         <v>33</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="58" t="s">
+      <c r="C51" s="58"/>
+      <c r="D51" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="57"/>
+      <c r="E51" s="124">
+        <v>69</v>
+      </c>
       <c r="F51" s="49"/>
     </row>
-    <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A52" s="44">
         <v>34</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="58" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="57"/>
-      <c r="F52" s="49"/>
+      <c r="E52" s="124">
+        <v>0</v>
+      </c>
+      <c r="F52" s="144" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="44">
         <v>35</v>
       </c>
-      <c r="B53" s="58" t="s">
+      <c r="B53" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="58" t="s">
+      <c r="C53" s="58"/>
+      <c r="D53" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="57"/>
+      <c r="E53" s="124">
+        <v>78</v>
+      </c>
       <c r="F53" s="49"/>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="44">
         <v>36</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="58" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="124">
+        <v>77</v>
+      </c>
       <c r="F54" s="49"/>
     </row>
     <row r="55" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A55" s="44">
         <v>37</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58" t="s">
+      <c r="C55" s="58"/>
+      <c r="D55" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E55" s="57"/>
+      <c r="E55" s="124">
+        <v>76</v>
+      </c>
       <c r="F55" s="49"/>
     </row>
     <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="44">
         <v>38</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58" t="s">
+      <c r="C56" s="58"/>
+      <c r="D56" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="57"/>
+      <c r="E56" s="124">
+        <v>63</v>
+      </c>
       <c r="F56" s="49"/>
     </row>
   </sheetData>
@@ -4160,7 +5076,7 @@
   <protectedRanges>
     <protectedRange sqref="E19:E56" name="Range1"/>
   </protectedRanges>
-  <sortState ref="B19:D56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:D56">
     <sortCondition ref="B19:B56"/>
   </sortState>
   <mergeCells count="10">
@@ -4177,7 +5093,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations xWindow="511" yWindow="802" count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Score for report is between 0 to 100_x000a_" sqref="E19:E56">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Score for report is between 0 to 100_x000a_" sqref="E19:E56" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -4189,727 +5105,860 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B34"/>
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="62"/>
-    <col min="5" max="5" width="16.5703125" style="62" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="62" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="62" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="13.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="1" width="25.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="61"/>
+    <col min="5" max="5" width="16.5703125" style="61" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="61" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="61" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="61" customWidth="1"/>
+    <col min="9" max="9" width="7.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="61" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" style="61" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="5.7109375" style="61" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4" style="61" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="61"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="64">
+    <row r="2" spans="1:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="63">
         <v>1</v>
       </c>
-      <c r="B2" s="65">
+      <c r="B2" s="64">
         <f>Marks!K2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="64">
+        <v>50</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="63">
         <v>2</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <f>Marks!K3</f>
         <v>67</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="69">
+      <c r="F3" s="68">
         <f>COUNTIF($B$2:$B$61,"&gt;=0")</f>
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="64">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="63">
         <v>3</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="64">
         <f>Marks!K4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="69">
         <f>IF(F3&gt;0,AVERAGE($B$2:$B$61),"")</f>
-        <v>37.787878787878789</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64">
+        <v>66.030303030303031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="63">
         <v>4</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="64">
         <f>Marks!K5</f>
         <v>78</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="71">
+      <c r="F5" s="70">
         <f>IF(F3&gt;1,STDEV($B$2:$B$61),"")</f>
-        <v>35.498025980114001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="64">
+        <v>13.662185148441775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="63">
         <v>5</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="64">
         <f>Marks!K6</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64">
+        <v>63</v>
+      </c>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="63">
         <v>6</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="64">
         <f>Marks!K7</f>
         <v>70</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="60" t="s">
+      <c r="F7" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="G7" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="72" t="s">
+      <c r="I7" s="71" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="64">
+      <c r="J7" s="128" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="63">
         <v>7</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="64">
         <f>Marks!K8</f>
         <v>70</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="62" t="s">
+      <c r="F8" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="72">
         <v>5</v>
       </c>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="61" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="74">
+      <c r="I8" s="73">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85"))/$F$3,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="64">
+      <c r="J8" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85")),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="63">
         <v>8</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="64">
         <f>Marks!K9</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="72">
         <v>5</v>
       </c>
-      <c r="H9" s="62" t="s">
+      <c r="H9" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80"))/$F$3,"")</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="64">
+        <v>6.0606060606060608E-2</v>
+      </c>
+      <c r="J9" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80")),"")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="63">
         <v>9</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="64">
         <f>Marks!K10</f>
-        <v>0</v>
-      </c>
-      <c r="E10" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="62" t="s">
+      <c r="F10" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="72">
         <v>4.5</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="I10" s="75">
+      <c r="I10" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="64">
+        <v>0.21212121212121213</v>
+      </c>
+      <c r="J10" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75")),"")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="63">
         <v>10</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="64">
         <f>Marks!K11</f>
         <v>84</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="E11" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="62" t="s">
+      <c r="F11" s="61" t="s">
         <v>120</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="72">
         <v>4</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="75">
+      <c r="I11" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="64">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="J11" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70")),"")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="63">
         <v>11</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="64">
         <f>Marks!K12</f>
         <v>75</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="72">
         <v>3.5</v>
       </c>
-      <c r="H12" s="62" t="s">
+      <c r="H12" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65"))/$F$3,"")</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="64">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J12" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65")),"")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="63">
         <v>12</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="64">
         <f>Marks!K13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="62" t="s">
+      <c r="F13" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="72">
         <v>3</v>
       </c>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60"))/$F$3,"")</f>
-        <v>0.15151515151515152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="64">
+        <v>0.24242424242424243</v>
+      </c>
+      <c r="J13" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60")),"")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="63">
         <v>13</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="64">
         <f>Marks!K14</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="62" t="s">
+      <c r="F14" s="61" t="s">
         <v>129</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="72">
         <v>2.5</v>
       </c>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55"))/$F$3,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="64">
+      <c r="J14" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55")),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="63">
         <v>14</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="64">
         <f>Marks!K15</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="62" t="s">
+      <c r="F15" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="72">
         <v>2</v>
       </c>
-      <c r="H15" s="62" t="s">
+      <c r="H15" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="75">
+      <c r="I15" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50"))/$F$3,"")</f>
-        <v>3.0303030303030304E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="64">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="J15" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50")),"")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="63">
         <v>15</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <f>Marks!K16</f>
         <v>61</v>
       </c>
-      <c r="E16" s="62" t="s">
+      <c r="E16" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="61" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="72">
         <v>1.5</v>
       </c>
-      <c r="H16" s="62" t="s">
+      <c r="H16" s="61" t="s">
         <v>135</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45"))/$F$3,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="64">
+      <c r="J16" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45")),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="63">
         <v>16</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="64">
         <f>Marks!K17</f>
         <v>64</v>
       </c>
-      <c r="E17" s="62" t="s">
+      <c r="E17" s="61" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G17" s="73">
+      <c r="G17" s="72">
         <v>1</v>
       </c>
-      <c r="H17" s="62" t="s">
+      <c r="H17" s="61" t="s">
         <v>137</v>
       </c>
-      <c r="I17" s="75">
+      <c r="I17" s="74">
         <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40"))/$F$3,"")</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64">
+      <c r="J17" s="126">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="129" t="s">
+        <v>110</v>
+      </c>
+      <c r="M17" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="N17" s="130" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="130" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="130" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="130" t="s">
+        <v>124</v>
+      </c>
+      <c r="R17" s="130" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17" s="130" t="s">
+        <v>130</v>
+      </c>
+      <c r="T17" s="130" t="s">
+        <v>132</v>
+      </c>
+      <c r="U17" s="130" t="s">
+        <v>135</v>
+      </c>
+      <c r="V17" s="130" t="s">
+        <v>137</v>
+      </c>
+      <c r="W17" s="131" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="63">
         <v>17</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="64">
         <f>Marks!K18</f>
         <v>60</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="67" t="s">
+      <c r="F18" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="75">
         <v>0</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="I18" s="77">
+      <c r="I18" s="76">
         <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40")/COUNTIF($B$2:$B$61,"&gt;0"),"")</f>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="64">
+        <v>3.0303030303030304E-2</v>
+      </c>
+      <c r="J18" s="127">
+        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40"),"")</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="132" t="s">
+        <v>198</v>
+      </c>
+      <c r="M18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;101")-COUNTIF($B$2:$B$61,"&lt;85")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;85")-COUNTIF($B$2:$B$61,"&lt;80")),"")</f>
+        <v>2</v>
+      </c>
+      <c r="O18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;80")-COUNTIF($B$2:$B$61,"&lt;75")),"")</f>
+        <v>7</v>
+      </c>
+      <c r="P18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;75")-COUNTIF($B$2:$B$61,"&lt;70")),"")</f>
+        <v>5</v>
+      </c>
+      <c r="Q18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;70")-COUNTIF($B$2:$B$61,"&lt;65")),"")</f>
+        <v>6</v>
+      </c>
+      <c r="R18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;65")-COUNTIF($B$2:$B$61,"&lt;60")),"")</f>
+        <v>8</v>
+      </c>
+      <c r="S18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;60")-COUNTIF($B$2:$B$61,"&lt;55")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;55")-COUNTIF($B$2:$B$61,"&lt;50")),"")</f>
+        <v>4</v>
+      </c>
+      <c r="U18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;50")-COUNTIF($B$2:$B$61,"&lt;45")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V18" s="133">
+        <f>IF($F$3&gt;0,(COUNTIF($B$2:$B$61,"&lt;45")-COUNTIF($B$2:$B$61,"&lt;40")),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="134">
+        <f>IF($F$3&gt;0,COUNTIF($B$2:$B$61,"&lt;40"),"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="63">
         <v>18</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="64">
         <f>Marks!K19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="64">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="63">
         <v>19</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="64">
         <f>Marks!K20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="63">
         <v>20</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="64">
         <f>Marks!K21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="64">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="63">
         <v>21</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="64">
         <f>Marks!K22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="64">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="63">
         <v>22</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="64">
         <f>Marks!K23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="64">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="63">
         <v>23</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="64">
         <f>Marks!K24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="64">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="63">
         <v>24</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="64">
         <f>Marks!K25</f>
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="64">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="63">
         <v>25</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="64">
         <f>Marks!K26</f>
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="64">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="63">
         <v>26</v>
       </c>
-      <c r="B27" s="65">
+      <c r="B27" s="64">
         <f>Marks!K27</f>
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="64">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="63">
         <v>27</v>
       </c>
-      <c r="B28" s="65">
+      <c r="B28" s="64">
         <f>Marks!K28</f>
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="64">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="63">
         <v>28</v>
       </c>
-      <c r="B29" s="65">
+      <c r="B29" s="64">
         <f>Marks!K29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="63">
         <v>29</v>
       </c>
-      <c r="B30" s="65">
+      <c r="B30" s="64">
         <f>Marks!K30</f>
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="64">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="63">
         <v>30</v>
       </c>
-      <c r="B31" s="65">
+      <c r="B31" s="64">
         <f>Marks!K31</f>
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="64">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="63">
         <v>31</v>
       </c>
-      <c r="B32" s="65">
+      <c r="B32" s="64">
         <f>Marks!K32</f>
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="64">
+      <c r="A33" s="63">
         <v>32</v>
       </c>
-      <c r="B33" s="65">
+      <c r="B33" s="64">
         <f>Marks!K33</f>
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="64">
+      <c r="A34" s="63">
         <v>33</v>
       </c>
-      <c r="B34" s="65">
+      <c r="B34" s="64">
         <f>Marks!K34</f>
         <v>63</v>
       </c>
-      <c r="D34" s="135" t="s">
+      <c r="D34" s="157" t="s">
         <v>140</v>
       </c>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="H34" s="135"/>
-      <c r="I34" s="135"/>
-      <c r="J34" s="135"/>
-      <c r="K34" s="135"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="157"/>
+      <c r="K34" s="157"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="64">
+      <c r="A35" s="63">
         <v>34</v>
       </c>
-      <c r="B35" s="65"/>
+      <c r="B35" s="64"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="64">
+      <c r="A36" s="63">
         <v>35</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="64"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="64">
+      <c r="A37" s="63">
         <v>36</v>
       </c>
-      <c r="B37" s="65"/>
+      <c r="B37" s="64"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="64">
+      <c r="A38" s="63">
         <v>37</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="64"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="64">
+      <c r="A39" s="63">
         <v>38</v>
       </c>
-      <c r="B39" s="65"/>
+      <c r="B39" s="64"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="64">
+      <c r="A40" s="63">
         <v>39</v>
       </c>
-      <c r="B40" s="65"/>
+      <c r="B40" s="64"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="64">
+      <c r="A41" s="63">
         <v>40</v>
       </c>
-      <c r="B41" s="65"/>
+      <c r="B41" s="64"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="64">
+      <c r="A42" s="63">
         <v>41</v>
       </c>
-      <c r="B42" s="65"/>
+      <c r="B42" s="64"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="64">
+      <c r="A43" s="63">
         <v>42</v>
       </c>
-      <c r="B43" s="65"/>
+      <c r="B43" s="64"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="64">
+      <c r="A44" s="63">
         <v>43</v>
       </c>
-      <c r="B44" s="65"/>
+      <c r="B44" s="64"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="64">
+      <c r="A45" s="63">
         <v>44</v>
       </c>
-      <c r="B45" s="65"/>
+      <c r="B45" s="64"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="64">
+      <c r="A46" s="63">
         <v>45</v>
       </c>
-      <c r="B46" s="65"/>
+      <c r="B46" s="64"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="64">
+      <c r="A47" s="63">
         <v>46</v>
       </c>
-      <c r="B47" s="65"/>
+      <c r="B47" s="64"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="64">
+      <c r="A48" s="63">
         <v>47</v>
       </c>
-      <c r="B48" s="65"/>
+      <c r="B48" s="64"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="64">
+      <c r="A49" s="63">
         <v>48</v>
       </c>
-      <c r="B49" s="65"/>
+      <c r="B49" s="64"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="64">
+      <c r="A50" s="63">
         <v>49</v>
       </c>
-      <c r="B50" s="65"/>
+      <c r="B50" s="64"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="64">
+      <c r="A51" s="63">
         <v>50</v>
       </c>
-      <c r="B51" s="65"/>
+      <c r="B51" s="64"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="64">
+      <c r="A52" s="63">
         <v>51</v>
       </c>
-      <c r="B52" s="65"/>
+      <c r="B52" s="64"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="64">
+      <c r="A53" s="63">
         <v>52</v>
       </c>
-      <c r="B53" s="65"/>
+      <c r="B53" s="64"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="64">
+      <c r="A54" s="63">
         <v>53</v>
       </c>
-      <c r="B54" s="65"/>
+      <c r="B54" s="64"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="64">
+      <c r="A55" s="63">
         <v>54</v>
       </c>
-      <c r="B55" s="65"/>
+      <c r="B55" s="64"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="64">
+      <c r="A56" s="63">
         <v>55</v>
       </c>
-      <c r="B56" s="65"/>
+      <c r="B56" s="64"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="64">
+      <c r="A57" s="63">
         <v>56</v>
       </c>
-      <c r="B57" s="65"/>
+      <c r="B57" s="64"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="64">
+      <c r="A58" s="63">
         <v>57</v>
       </c>
-      <c r="B58" s="65"/>
+      <c r="B58" s="64"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="64">
+      <c r="A59" s="63">
         <v>58</v>
       </c>
-      <c r="B59" s="65"/>
+      <c r="B59" s="64"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="64">
+      <c r="A60" s="63">
         <v>59</v>
       </c>
-      <c r="B60" s="65"/>
+      <c r="B60" s="64"/>
     </row>
     <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="78">
+      <c r="A61" s="77">
         <v>60</v>
       </c>
-      <c r="B61" s="79"/>
+      <c r="B61" s="78"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4922,8 +5971,8 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61">
+    <dataValidation errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Mean is outside target range!!" sqref="F4" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Please input numerical value between 0 to 100!" sqref="B2:B61" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -4935,1086 +5984,1325 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G55" sqref="G55"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelCol="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="13.5703125" style="86" customWidth="1" outlineLevel="2"/>
-    <col min="8" max="10" width="13.5703125" style="86" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="13.5703125" style="86" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="86"/>
-    <col min="13" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="40.7109375" style="86" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.5703125" style="85" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="8" max="10" width="13.5703125" style="85" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="13.5703125" style="85" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="85"/>
+    <col min="13" max="13" width="42.7109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="79"/>
+    <col min="15" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="82" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83"/>
+      <c r="F1" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="G1" s="83" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="H1" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="I1" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="J1" s="83" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="K1" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="85" t="s">
+      <c r="L1" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="86" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="93">
+      <c r="D2" s="90">
+        <f>3+6+5+3+2</f>
+        <v>19</v>
+      </c>
+      <c r="E2" s="91">
+        <f>3+4+3</f>
+        <v>10</v>
+      </c>
+      <c r="F2" s="91">
+        <v>0</v>
+      </c>
+      <c r="G2" s="91">
+        <v>11</v>
+      </c>
+      <c r="H2" s="91">
+        <v>2</v>
+      </c>
+      <c r="I2" s="91">
+        <v>8</v>
+      </c>
+      <c r="J2" s="91">
+        <v>0</v>
+      </c>
+      <c r="K2" s="92">
         <f t="shared" ref="K2:K34" si="0">SUM(D2:J2)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="93" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="94" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="96">
         <f>3+5+2+11+2</f>
         <v>23</v>
       </c>
-      <c r="E3" s="98">
+      <c r="E3" s="97">
         <f>4+5+4</f>
         <v>13</v>
       </c>
-      <c r="F3" s="98">
+      <c r="F3" s="97">
         <v>3</v>
       </c>
-      <c r="G3" s="98">
+      <c r="G3" s="97">
         <v>9</v>
       </c>
-      <c r="H3" s="98">
+      <c r="H3" s="97">
         <v>8</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3" s="97">
         <v>6</v>
       </c>
-      <c r="J3" s="98">
+      <c r="J3" s="97">
         <v>5</v>
       </c>
-      <c r="K3" s="99">
+      <c r="K3" s="98">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="96">
+        <f>3+5+4+12+1</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="97">
+        <f>4+4+5</f>
+        <v>13</v>
+      </c>
+      <c r="F4" s="97">
+        <v>2</v>
+      </c>
+      <c r="G4" s="97">
+        <v>10</v>
+      </c>
+      <c r="H4" s="97">
+        <v>0</v>
+      </c>
+      <c r="I4" s="97">
+        <v>0</v>
+      </c>
+      <c r="J4" s="97">
+        <v>0</v>
+      </c>
+      <c r="K4" s="98">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="111" t="s">
         <v>184</v>
       </c>
-      <c r="C4" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="112" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="114" t="s">
+      <c r="B5" s="112"/>
+      <c r="C5" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="112">
+      <c r="D5" s="111">
         <f>3+5+5+9+2</f>
         <v>24</v>
       </c>
-      <c r="E5" s="115">
+      <c r="E5" s="114">
         <f>5+3+4</f>
         <v>12</v>
       </c>
-      <c r="F5" s="115">
+      <c r="F5" s="114">
         <v>3</v>
       </c>
-      <c r="G5" s="115">
+      <c r="G5" s="114">
         <v>14</v>
       </c>
-      <c r="H5" s="115">
+      <c r="H5" s="114">
         <v>8</v>
       </c>
-      <c r="I5" s="115">
+      <c r="I5" s="114">
         <v>9</v>
       </c>
-      <c r="J5" s="115">
+      <c r="J5" s="114">
         <v>8</v>
       </c>
-      <c r="K5" s="116">
+      <c r="K5" s="115">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="L5" s="80"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="101" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="B6" s="100" t="s">
+        <v>169</v>
+      </c>
+      <c r="C6" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="99">
+      <c r="D6" s="102">
+        <f>3+6+6+12+2</f>
+        <v>29</v>
+      </c>
+      <c r="E6" s="103">
+        <f>5+2+4</f>
+        <v>11</v>
+      </c>
+      <c r="F6" s="103">
+        <v>3</v>
+      </c>
+      <c r="G6" s="103">
+        <v>9</v>
+      </c>
+      <c r="H6" s="103">
+        <v>2</v>
+      </c>
+      <c r="I6" s="103">
+        <v>7</v>
+      </c>
+      <c r="J6" s="103">
+        <v>2</v>
+      </c>
+      <c r="K6" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="90" t="s">
+      <c r="B7" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="90">
         <f>3+6+5+11+2</f>
         <v>27</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f>5+3+4</f>
         <v>12</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <v>1</v>
       </c>
-      <c r="G7" s="92">
+      <c r="G7" s="91">
         <v>9</v>
       </c>
-      <c r="H7" s="92">
+      <c r="H7" s="91">
         <v>6</v>
       </c>
-      <c r="I7" s="92">
+      <c r="I7" s="91">
         <v>8</v>
       </c>
-      <c r="J7" s="92">
+      <c r="J7" s="91">
         <v>7</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="92">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="96">
         <f>4+6+5+12+2</f>
         <v>29</v>
       </c>
-      <c r="E8" s="98">
+      <c r="E8" s="97">
         <f>3+4+4</f>
         <v>11</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="97">
         <v>4</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="97">
         <v>13</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="97">
         <v>6</v>
       </c>
-      <c r="I8" s="98">
+      <c r="I8" s="97">
         <v>7</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="97">
         <v>0</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="98">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="95" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="96" t="s">
+      <c r="B9" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99">
+      <c r="D9" s="96">
+        <f>3+6+6+12+2</f>
+        <v>29</v>
+      </c>
+      <c r="E9" s="97">
+        <f>3+4+5</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="97">
+        <v>3</v>
+      </c>
+      <c r="G9" s="97">
+        <v>14</v>
+      </c>
+      <c r="H9" s="97">
+        <v>8</v>
+      </c>
+      <c r="I9" s="97">
+        <v>8</v>
+      </c>
+      <c r="J9" s="97">
+        <v>8</v>
+      </c>
+      <c r="K9" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="101" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105">
+      <c r="D10" s="102">
+        <f>2+6+3+7+1</f>
+        <v>19</v>
+      </c>
+      <c r="E10" s="103">
+        <f>4+3+5</f>
+        <v>12</v>
+      </c>
+      <c r="F10" s="103">
+        <v>3</v>
+      </c>
+      <c r="G10" s="103">
+        <v>10</v>
+      </c>
+      <c r="H10" s="103">
+        <v>2</v>
+      </c>
+      <c r="I10" s="103">
+        <v>6</v>
+      </c>
+      <c r="J10" s="103">
+        <v>8</v>
+      </c>
+      <c r="K10" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="105" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="107" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="C11" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="109">
+      <c r="D11" s="108">
         <f>3+5+5+13+2</f>
         <v>28</v>
       </c>
-      <c r="E11" s="110">
+      <c r="E11" s="109">
         <f>5+4+5</f>
         <v>14</v>
       </c>
-      <c r="F11" s="110">
+      <c r="F11" s="109">
         <v>4</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="109">
         <v>14</v>
       </c>
-      <c r="H11" s="110">
+      <c r="H11" s="109">
         <v>7</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="109">
         <v>10</v>
       </c>
-      <c r="J11" s="110">
+      <c r="J11" s="109">
         <v>7</v>
       </c>
-      <c r="K11" s="111">
+      <c r="K11" s="110">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="80" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100" t="s">
+    <row r="12" spans="1:12" s="79" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="100" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="101" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="102">
         <f>4+6+6+11+2</f>
         <v>29</v>
       </c>
-      <c r="E12" s="104">
+      <c r="E12" s="103">
         <f>5+4+5</f>
         <v>14</v>
       </c>
-      <c r="F12" s="104">
+      <c r="F12" s="103">
         <v>2</v>
       </c>
-      <c r="G12" s="104">
+      <c r="G12" s="103">
         <v>9</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="103">
         <v>6</v>
       </c>
-      <c r="I12" s="104">
+      <c r="I12" s="103">
         <v>8</v>
       </c>
-      <c r="J12" s="104">
+      <c r="J12" s="103">
         <v>7</v>
       </c>
-      <c r="K12" s="105">
+      <c r="K12" s="104">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="L12" s="86"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="89" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="90" t="s">
+      <c r="B13" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="89" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-      <c r="K13" s="93">
+      <c r="D13" s="90">
+        <f>3+6+6+9+2</f>
+        <v>26</v>
+      </c>
+      <c r="E13" s="91">
+        <f>1+4+3</f>
+        <v>8</v>
+      </c>
+      <c r="F13" s="91">
+        <v>2</v>
+      </c>
+      <c r="G13" s="91">
+        <v>9</v>
+      </c>
+      <c r="H13" s="91">
+        <v>4</v>
+      </c>
+      <c r="I13" s="91">
+        <v>5</v>
+      </c>
+      <c r="J13" s="91">
+        <v>8</v>
+      </c>
+      <c r="K13" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="96">
+        <f>4+6+6+12+2</f>
+        <v>30</v>
+      </c>
+      <c r="E14" s="97">
+        <f>3+3+5</f>
+        <v>11</v>
+      </c>
+      <c r="F14" s="97">
+        <v>2</v>
+      </c>
+      <c r="G14" s="97">
+        <v>9</v>
+      </c>
+      <c r="H14" s="97">
+        <v>9</v>
+      </c>
+      <c r="I14" s="97">
+        <v>7</v>
+      </c>
+      <c r="J14" s="97">
+        <v>7</v>
+      </c>
+      <c r="K14" s="98">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="96" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99">
+      <c r="C15" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="102">
+        <f>2+5+6+13+2</f>
+        <v>28</v>
+      </c>
+      <c r="E15" s="103">
+        <f>4+3+4</f>
+        <v>11</v>
+      </c>
+      <c r="F15" s="103">
+        <v>3</v>
+      </c>
+      <c r="G15" s="103">
+        <v>10</v>
+      </c>
+      <c r="H15" s="103">
+        <v>6</v>
+      </c>
+      <c r="I15" s="103">
+        <v>8</v>
+      </c>
+      <c r="J15" s="103">
+        <v>8</v>
+      </c>
+      <c r="K15" s="104">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>189</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" s="90" t="s">
+      <c r="B16" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="90">
         <f>2+0+3+13+2</f>
         <v>20</v>
       </c>
-      <c r="E16" s="92">
+      <c r="E16" s="91">
         <f>3+3+3</f>
         <v>9</v>
       </c>
-      <c r="F16" s="92">
+      <c r="F16" s="91">
         <v>4</v>
       </c>
-      <c r="G16" s="92">
+      <c r="G16" s="91">
         <v>10</v>
       </c>
-      <c r="H16" s="92">
+      <c r="H16" s="91">
         <v>4</v>
       </c>
-      <c r="I16" s="92">
+      <c r="I16" s="91">
         <v>7</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="91">
         <v>7</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="92">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="96">
         <f>3+5+6+11+1</f>
         <v>26</v>
       </c>
-      <c r="E17" s="98">
+      <c r="E17" s="97">
         <f>4+4+3</f>
         <v>11</v>
       </c>
-      <c r="F17" s="98">
+      <c r="F17" s="97">
         <v>2</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="97">
         <v>10</v>
       </c>
-      <c r="H17" s="98">
+      <c r="H17" s="97">
         <v>8</v>
       </c>
-      <c r="I17" s="98">
+      <c r="I17" s="97">
         <v>6</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="97">
         <v>1</v>
       </c>
-      <c r="K17" s="99">
+      <c r="K17" s="98">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="94" t="s">
         <v>161</v>
       </c>
-      <c r="B18" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="97">
+      <c r="D18" s="96">
         <f>2+9+6+5+2</f>
         <v>24</v>
       </c>
-      <c r="E18" s="98">
+      <c r="E18" s="97">
         <f>4+3+4</f>
         <v>11</v>
       </c>
-      <c r="F18" s="98">
+      <c r="F18" s="97">
         <v>4</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="97">
         <v>4</v>
       </c>
-      <c r="H18" s="98">
+      <c r="H18" s="97">
         <v>5</v>
       </c>
-      <c r="I18" s="98">
+      <c r="I18" s="97">
         <v>6</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="97">
         <v>6</v>
       </c>
-      <c r="K18" s="99">
+      <c r="K18" s="98">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="102">
+        <f>3+4+4+9+1</f>
+        <v>21</v>
+      </c>
+      <c r="E19" s="103">
+        <f>3+2+5</f>
+        <v>10</v>
+      </c>
+      <c r="F19" s="103">
+        <v>4</v>
+      </c>
+      <c r="G19" s="103">
+        <v>12</v>
+      </c>
+      <c r="H19" s="103">
+        <v>3</v>
+      </c>
+      <c r="I19" s="103">
+        <v>3</v>
+      </c>
+      <c r="J19" s="103">
+        <v>0</v>
+      </c>
+      <c r="K19" s="104">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="104"/>
-      <c r="K19" s="105">
+      <c r="C20" s="89" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="90">
+        <f>2+3+5+11+2</f>
+        <v>23</v>
+      </c>
+      <c r="E20" s="91">
+        <f>4+4+5</f>
+        <v>13</v>
+      </c>
+      <c r="F20" s="91">
+        <v>1</v>
+      </c>
+      <c r="G20" s="91">
+        <v>11</v>
+      </c>
+      <c r="H20" s="91">
+        <v>4</v>
+      </c>
+      <c r="I20" s="91">
+        <v>8</v>
+      </c>
+      <c r="J20" s="91">
+        <v>8</v>
+      </c>
+      <c r="K20" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="93">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="96">
+        <f>3+6+6+13+2</f>
+        <v>30</v>
+      </c>
+      <c r="E21" s="97">
+        <f>5+3+5</f>
+        <v>13</v>
+      </c>
+      <c r="F21" s="97">
+        <v>3</v>
+      </c>
+      <c r="G21" s="97">
+        <v>11</v>
+      </c>
+      <c r="H21" s="97">
+        <v>4</v>
+      </c>
+      <c r="I21" s="97">
+        <v>7</v>
+      </c>
+      <c r="J21" s="97">
+        <v>6</v>
+      </c>
+      <c r="K21" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="95" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="99">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="96">
+        <f>3+6+5+11+2</f>
+        <v>27</v>
+      </c>
+      <c r="E22" s="97">
+        <f>4+4+5</f>
+        <v>13</v>
+      </c>
+      <c r="F22" s="97">
+        <v>2</v>
+      </c>
+      <c r="G22" s="97">
+        <v>9</v>
+      </c>
+      <c r="H22" s="97">
+        <v>4</v>
+      </c>
+      <c r="I22" s="97">
+        <v>7</v>
+      </c>
+      <c r="J22" s="97">
+        <v>5</v>
+      </c>
+      <c r="K22" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="95" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23" s="96" t="s">
+      <c r="B23" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="91">
+      <c r="D23" s="96">
         <f>3+5+5+13+2</f>
         <v>28</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E23" s="97">
+        <f>5+4+4</f>
+        <v>13</v>
+      </c>
+      <c r="F23" s="97">
+        <v>2</v>
+      </c>
+      <c r="G23" s="97">
+        <v>10</v>
+      </c>
+      <c r="H23" s="97">
+        <v>4</v>
+      </c>
+      <c r="I23" s="97">
+        <v>7</v>
+      </c>
+      <c r="J23" s="97">
+        <v>4</v>
+      </c>
+      <c r="K23" s="98">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="102">
+        <f>11+5+5+3+2</f>
+        <v>26</v>
+      </c>
+      <c r="E24" s="103">
         <f>5+4+5</f>
         <v>14</v>
       </c>
-      <c r="F25" s="92">
+      <c r="F24" s="103">
+        <v>5</v>
+      </c>
+      <c r="G24" s="103">
+        <v>11</v>
+      </c>
+      <c r="H24" s="103">
+        <v>7</v>
+      </c>
+      <c r="I24" s="103">
+        <v>7</v>
+      </c>
+      <c r="J24" s="103">
+        <v>8</v>
+      </c>
+      <c r="K24" s="104">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="90">
+        <f>3+5+5+13+2</f>
+        <v>28</v>
+      </c>
+      <c r="E25" s="91">
+        <f>5+4+5</f>
+        <v>14</v>
+      </c>
+      <c r="F25" s="91">
         <v>2</v>
       </c>
-      <c r="G25" s="92">
+      <c r="G25" s="91">
         <v>10</v>
       </c>
-      <c r="H25" s="92">
+      <c r="H25" s="91">
         <v>4</v>
       </c>
-      <c r="I25" s="92">
+      <c r="I25" s="91">
         <v>3</v>
       </c>
-      <c r="J25" s="92">
+      <c r="J25" s="91">
         <v>6</v>
       </c>
-      <c r="K25" s="93">
+      <c r="K25" s="92">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="96" t="s">
+      <c r="B26" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="97">
+      <c r="D26" s="96">
         <f>4+2+7+2</f>
         <v>15</v>
       </c>
-      <c r="E26" s="98">
+      <c r="E26" s="97">
         <f>5+3+2</f>
         <v>10</v>
       </c>
-      <c r="F26" s="98">
+      <c r="F26" s="97">
         <v>3</v>
       </c>
-      <c r="G26" s="98">
+      <c r="G26" s="97">
         <v>9</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="97">
         <v>12</v>
       </c>
-      <c r="I26" s="98">
+      <c r="I26" s="97">
         <v>7</v>
       </c>
-      <c r="J26" s="98">
+      <c r="J26" s="97">
         <v>5</v>
       </c>
-      <c r="K26" s="99">
+      <c r="K26" s="98">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="94" t="s">
+      <c r="A27" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="95" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" s="96" t="s">
+      <c r="B27" s="94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="96">
         <f>4+4+6+11+2</f>
         <v>27</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="97">
         <f>5+4+3</f>
         <v>12</v>
       </c>
-      <c r="F27" s="98">
+      <c r="F27" s="97">
         <v>3</v>
       </c>
-      <c r="G27" s="98">
+      <c r="G27" s="97">
         <v>10</v>
       </c>
-      <c r="H27" s="98">
+      <c r="H27" s="97">
         <v>7</v>
       </c>
-      <c r="I27" s="98">
+      <c r="I27" s="97">
         <v>6</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="97">
         <v>8</v>
       </c>
-      <c r="K27" s="99">
+      <c r="K27" s="98">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="101" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="102" t="s">
+      <c r="B28" s="100" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="103">
+      <c r="D28" s="102">
         <f>3+6+3+6+2</f>
         <v>20</v>
       </c>
-      <c r="E28" s="104">
+      <c r="E28" s="103">
         <f>4+4+4</f>
         <v>12</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="103">
         <v>2</v>
       </c>
-      <c r="G28" s="104">
+      <c r="G28" s="103">
         <v>9</v>
       </c>
-      <c r="H28" s="104">
+      <c r="H28" s="103">
         <v>5</v>
       </c>
-      <c r="I28" s="104">
+      <c r="I28" s="103">
         <v>3</v>
       </c>
-      <c r="J28" s="104">
+      <c r="J28" s="103">
         <v>3</v>
       </c>
-      <c r="K28" s="105">
+      <c r="K28" s="104">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="89" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="90" t="s">
+      <c r="B29" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="92"/>
-      <c r="G29" s="92"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93">
+      <c r="D29" s="90">
+        <f>2+5+1</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="91">
+        <v>0</v>
+      </c>
+      <c r="F29" s="91">
+        <v>0</v>
+      </c>
+      <c r="G29" s="91">
+        <v>0</v>
+      </c>
+      <c r="H29" s="91">
+        <v>0</v>
+      </c>
+      <c r="I29" s="91">
+        <v>0</v>
+      </c>
+      <c r="J29" s="91">
+        <v>0</v>
+      </c>
+      <c r="K29" s="92">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="86">
+        <v>8</v>
+      </c>
+      <c r="L29" s="85">
         <f>1+15+4+15+10+25+15+15</f>
         <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="96" t="s">
+      <c r="B30" s="94" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="96">
         <f>3+6+6+11+2</f>
         <v>28</v>
       </c>
-      <c r="E30" s="98">
+      <c r="E30" s="97">
         <f>4+3+4</f>
         <v>11</v>
       </c>
-      <c r="F30" s="98">
+      <c r="F30" s="97">
         <v>3</v>
       </c>
-      <c r="G30" s="98">
+      <c r="G30" s="97">
         <v>10</v>
       </c>
-      <c r="H30" s="98">
+      <c r="H30" s="97">
         <v>7</v>
       </c>
-      <c r="I30" s="98">
+      <c r="I30" s="97">
         <v>5</v>
       </c>
-      <c r="J30" s="98">
+      <c r="J30" s="97">
         <v>5</v>
       </c>
-      <c r="K30" s="99">
+      <c r="K30" s="98">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="101" t="s">
-        <v>178</v>
-      </c>
-      <c r="C31" s="102" t="s">
+      <c r="B31" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="D31" s="103">
+      <c r="D31" s="102">
         <f>3+6+5+11+2</f>
         <v>27</v>
       </c>
-      <c r="E31" s="104">
+      <c r="E31" s="103">
         <f>5+4+3</f>
         <v>12</v>
       </c>
-      <c r="F31" s="104">
+      <c r="F31" s="103">
         <v>4</v>
       </c>
-      <c r="G31" s="104">
+      <c r="G31" s="103">
         <v>13</v>
       </c>
-      <c r="H31" s="104">
+      <c r="H31" s="103">
         <v>6</v>
       </c>
-      <c r="I31" s="104">
+      <c r="I31" s="103">
         <v>9</v>
       </c>
-      <c r="J31" s="104">
+      <c r="J31" s="103">
         <v>7</v>
       </c>
-      <c r="K31" s="105">
+      <c r="K31" s="104">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="107" t="s">
-        <v>180</v>
-      </c>
-      <c r="C32" s="108" t="s">
+      <c r="B32" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="109">
+      <c r="D32" s="108">
         <f>3+2+6+13+2</f>
         <v>26</v>
       </c>
-      <c r="E32" s="110">
+      <c r="E32" s="109">
         <f>5+4+5</f>
         <v>14</v>
       </c>
-      <c r="F32" s="110">
+      <c r="F32" s="109">
         <v>4</v>
       </c>
-      <c r="G32" s="110">
+      <c r="G32" s="109">
         <v>9</v>
       </c>
-      <c r="H32" s="110">
+      <c r="H32" s="109">
         <v>7</v>
       </c>
-      <c r="I32" s="110">
+      <c r="I32" s="109">
         <v>8</v>
       </c>
-      <c r="J32" s="110">
+      <c r="J32" s="109">
         <v>9</v>
       </c>
-      <c r="K32" s="111">
+      <c r="K32" s="110">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="95" t="s">
-        <v>181</v>
-      </c>
-      <c r="C33" s="96" t="s">
+      <c r="B33" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C33" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="96">
         <f>3+6+5+8+2</f>
         <v>24</v>
       </c>
-      <c r="E33" s="98">
+      <c r="E33" s="97">
         <f>4+4+3</f>
         <v>11</v>
       </c>
-      <c r="F33" s="98">
+      <c r="F33" s="97">
         <v>4</v>
       </c>
-      <c r="G33" s="98">
+      <c r="G33" s="97">
         <v>14</v>
       </c>
-      <c r="H33" s="98">
+      <c r="H33" s="97">
         <v>7</v>
       </c>
-      <c r="I33" s="98">
+      <c r="I33" s="97">
         <v>7</v>
       </c>
-      <c r="J33" s="98">
+      <c r="J33" s="97">
         <v>9</v>
       </c>
-      <c r="K33" s="99">
+      <c r="K33" s="98">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="117" t="s">
+      <c r="A34" s="116" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="117" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" s="119" t="s">
+      <c r="C34" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="120">
+      <c r="D34" s="119">
         <f>3+5+5+8+2</f>
         <v>23</v>
       </c>
-      <c r="E34" s="121">
+      <c r="E34" s="120">
         <f>3+2+4</f>
         <v>9</v>
       </c>
-      <c r="F34" s="121">
+      <c r="F34" s="120">
         <v>4</v>
       </c>
-      <c r="G34" s="121">
+      <c r="G34" s="120">
         <v>10</v>
       </c>
-      <c r="H34" s="121">
+      <c r="H34" s="120">
         <v>5</v>
       </c>
-      <c r="I34" s="121">
+      <c r="I34" s="120">
         <v>6</v>
       </c>
-      <c r="J34" s="121">
+      <c r="J34" s="120">
         <v>6</v>
       </c>
-      <c r="K34" s="122">
+      <c r="K34" s="121">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L33"/>
-  <sortState ref="A2:L34">
+  <autoFilter ref="A1:L33" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L34">
     <sortCondition ref="A2:A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6022,139 +7310,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="124" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="124" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" style="124" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="124"/>
+    <col min="1" max="2" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="136" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="123" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="136" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="123" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="136"/>
+    <col min="16" max="17" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="123" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="136"/>
+    <col min="21" max="22" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.85546875" style="136"/>
+    <col min="26" max="27" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" style="136"/>
+    <col min="31" max="31" width="3" style="123" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2" style="123" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" s="122" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="123">
+        <f>Marks!D2</f>
+        <v>19</v>
+      </c>
+      <c r="C1" s="122" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="135"/>
+      <c r="F1" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="G1" s="123">
+        <f>Marks!E2</f>
+        <v>10</v>
+      </c>
+      <c r="H1" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" s="135"/>
+      <c r="K1" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="L1" s="123">
+        <f>Marks!F2</f>
         <v>0</v>
       </c>
-      <c r="B1" s="123" t="s">
-        <v>190</v>
-      </c>
-      <c r="C1" s="123" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="123" t="s">
+      <c r="M1" s="135" t="str">
+        <f>K1</f>
+        <v>1c</v>
+      </c>
+      <c r="N1" s="135"/>
+      <c r="P1" s="122" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" s="123">
+        <f>Marks!G2</f>
+        <v>11</v>
+      </c>
+      <c r="R1" s="135" t="str">
+        <f>P1</f>
+        <v>1d</v>
+      </c>
+      <c r="S1" s="135"/>
+      <c r="U1" s="122" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="123" t="s">
+      <c r="V1" s="123">
+        <f>Marks!H2</f>
+        <v>2</v>
+      </c>
+      <c r="W1" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="135"/>
+      <c r="Z1" s="122" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA1" s="123">
+        <f>Marks!I2</f>
+        <v>8</v>
+      </c>
+      <c r="AB1" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC1" s="135"/>
+      <c r="AE1" s="122" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF1" s="123">
+        <f>Marks!J2</f>
+        <v>0</v>
+      </c>
+      <c r="AG1" s="135" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH1" s="135"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B2" s="123">
+        <f>Marks!D3</f>
+        <v>23</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="G2" s="123">
+        <f>Marks!E3</f>
+        <v>13</v>
+      </c>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="L2" s="123">
+        <f>Marks!F3</f>
+        <v>3</v>
+      </c>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="Q2" s="123">
+        <f>Marks!G3</f>
+        <v>9</v>
+      </c>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="V2" s="123">
+        <f>Marks!H3</f>
+        <v>8</v>
+      </c>
+      <c r="W2" s="137"/>
+      <c r="X2" s="137"/>
+      <c r="AA2" s="123">
+        <f>Marks!I3</f>
+        <v>6</v>
+      </c>
+      <c r="AB2" s="137"/>
+      <c r="AC2" s="137"/>
+      <c r="AF2" s="123">
+        <f>Marks!J3</f>
+        <v>5</v>
+      </c>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B3" s="123">
+        <f>Marks!D4</f>
+        <v>25</v>
+      </c>
+      <c r="C3" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="D3" s="137">
+        <v>24.727272727272727</v>
+      </c>
+      <c r="G3" s="123">
+        <f>Marks!E4</f>
+        <v>13</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="137">
+        <v>11.393939393939394</v>
+      </c>
+      <c r="L3" s="123">
+        <f>Marks!F4</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="137">
+        <v>2.7575757575757578</v>
+      </c>
+      <c r="Q3" s="123">
+        <f>Marks!G4</f>
+        <v>10</v>
+      </c>
+      <c r="R3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="S3" s="137">
+        <v>10.060606060606061</v>
+      </c>
+      <c r="V3" s="123">
+        <f>Marks!H4</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="X3" s="137">
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="AA3" s="123">
+        <f>Marks!I4</f>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC3" s="137">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="AF3" s="123">
+        <f>Marks!J4</f>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH3" s="137">
+        <v>5.3939393939393936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B4" s="123">
+        <f>Marks!D5</f>
+        <v>24</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="137">
+        <v>0.8248883387161341</v>
+      </c>
+      <c r="G4" s="123">
+        <f>Marks!E5</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="137">
+        <v>0.44793168179074205</v>
+      </c>
+      <c r="L4" s="123">
+        <f>Marks!F5</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="N4" s="137">
+        <v>0.2088492235165185</v>
+      </c>
+      <c r="Q4" s="123">
+        <f>Marks!G5</f>
+        <v>14</v>
+      </c>
+      <c r="R4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="S4" s="137">
+        <v>0.47262042304491592</v>
+      </c>
+      <c r="V4" s="123">
+        <f>Marks!H5</f>
+        <v>8</v>
+      </c>
+      <c r="W4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="X4" s="137">
+        <v>0.44978568511507261</v>
+      </c>
+      <c r="AA4" s="123">
+        <f>Marks!I5</f>
+        <v>9</v>
+      </c>
+      <c r="AB4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC4" s="137">
+        <v>0.40044167534553055</v>
+      </c>
+      <c r="AF4" s="123">
+        <f>Marks!J5</f>
+        <v>8</v>
+      </c>
+      <c r="AG4" s="137" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH4" s="137">
+        <v>0.51665333671598523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="123">
+        <f>Marks!D6</f>
+        <v>29</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="137">
+        <v>26</v>
+      </c>
+      <c r="G5" s="123">
+        <f>Marks!E6</f>
+        <v>11</v>
+      </c>
+      <c r="H5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="I5" s="137">
+        <v>12</v>
+      </c>
+      <c r="L5" s="123">
+        <f>Marks!F6</f>
+        <v>3</v>
+      </c>
+      <c r="M5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5" s="137">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="123">
+        <f>Marks!G6</f>
+        <v>9</v>
+      </c>
+      <c r="R5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="S5" s="137">
+        <v>10</v>
+      </c>
+      <c r="V5" s="123">
+        <f>Marks!H6</f>
+        <v>2</v>
+      </c>
+      <c r="W5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="X5" s="137">
+        <v>6</v>
+      </c>
+      <c r="AA5" s="123">
+        <f>Marks!I6</f>
+        <v>7</v>
+      </c>
+      <c r="AB5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC5" s="137">
+        <v>7</v>
+      </c>
+      <c r="AF5" s="123">
+        <f>Marks!J6</f>
+        <v>2</v>
+      </c>
+      <c r="AG5" s="137" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH5" s="137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B6" s="123">
+        <f>Marks!D7</f>
+        <v>27</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="137">
+        <v>28</v>
+      </c>
+      <c r="G6" s="123">
+        <f>Marks!E7</f>
+        <v>12</v>
+      </c>
+      <c r="H6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="I6" s="137">
+        <v>11</v>
+      </c>
+      <c r="L6" s="123">
+        <f>Marks!F7</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" s="137">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="123">
+        <f>Marks!G7</f>
+        <v>9</v>
+      </c>
+      <c r="R6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="S6" s="137">
+        <v>9</v>
+      </c>
+      <c r="V6" s="123">
+        <f>Marks!H7</f>
+        <v>6</v>
+      </c>
+      <c r="W6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="X6" s="137">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="123">
+        <f>Marks!I7</f>
+        <v>8</v>
+      </c>
+      <c r="AB6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC6" s="137">
+        <v>7</v>
+      </c>
+      <c r="AF6" s="123">
+        <f>Marks!J7</f>
+        <v>7</v>
+      </c>
+      <c r="AG6" s="137" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH6" s="137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B7" s="123">
+        <f>Marks!D8</f>
+        <v>29</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" s="137">
+        <v>4.7386227381535129</v>
+      </c>
+      <c r="G7" s="123">
+        <f>Marks!E8</f>
+        <v>11</v>
+      </c>
+      <c r="H7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" s="137">
+        <v>2.5731716074160551</v>
+      </c>
+      <c r="L7" s="123">
+        <f>Marks!F8</f>
+        <v>4</v>
+      </c>
+      <c r="M7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="N7" s="137">
+        <v>1.1997474481714638</v>
+      </c>
+      <c r="Q7" s="123">
+        <f>Marks!G8</f>
+        <v>13</v>
+      </c>
+      <c r="R7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="S7" s="137">
+        <v>2.7149976282148249</v>
+      </c>
+      <c r="V7" s="123">
+        <f>Marks!H8</f>
+        <v>6</v>
+      </c>
+      <c r="W7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="X7" s="137">
+        <v>2.583822045659562</v>
+      </c>
+      <c r="AA7" s="123">
+        <f>Marks!I8</f>
+        <v>7</v>
+      </c>
+      <c r="AB7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC7" s="137">
+        <v>2.3003622903070431</v>
+      </c>
+      <c r="AF7" s="123">
+        <f>Marks!J8</f>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="137" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH7" s="137">
+        <v>2.9679474593078834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="123">
+        <f>Marks!D9</f>
+        <v>29</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="137">
+        <v>22.454545454545496</v>
+      </c>
+      <c r="G8" s="123">
+        <f>Marks!E9</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="I8" s="137">
+        <v>6.6212121212121247</v>
+      </c>
+      <c r="L8" s="123">
+        <f>Marks!F9</f>
+        <v>3</v>
+      </c>
+      <c r="M8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" s="137">
+        <v>1.4393939393939394</v>
+      </c>
+      <c r="Q8" s="123">
+        <f>Marks!G9</f>
+        <v>14</v>
+      </c>
+      <c r="R8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="S8" s="137">
+        <v>7.3712121212121247</v>
+      </c>
+      <c r="V8" s="123">
+        <f>Marks!H9</f>
+        <v>8</v>
+      </c>
+      <c r="W8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="X8" s="137">
+        <v>6.6761363636363633</v>
+      </c>
+      <c r="AA8" s="123">
+        <f>Marks!I9</f>
+        <v>8</v>
+      </c>
+      <c r="AB8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC8" s="137">
+        <v>5.2916666666666643</v>
+      </c>
+      <c r="AF8" s="123">
+        <f>Marks!J9</f>
+        <v>8</v>
+      </c>
+      <c r="AG8" s="137" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH8" s="137">
+        <v>8.8087121212121211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="123">
+        <f>Marks!D10</f>
+        <v>19</v>
+      </c>
+      <c r="C9" s="137" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="124">
+      <c r="D9" s="137">
+        <v>3.739222610730621</v>
+      </c>
+      <c r="G9" s="123">
+        <f>Marks!E10</f>
+        <v>12</v>
+      </c>
+      <c r="H9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="137">
+        <v>11.604491727165991</v>
+      </c>
+      <c r="L9" s="123">
+        <f>Marks!F10</f>
+        <v>3</v>
+      </c>
+      <c r="M9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="N9" s="137">
+        <v>5.3444017514072684E-2</v>
+      </c>
+      <c r="Q9" s="123">
+        <f>Marks!G10</f>
+        <v>10</v>
+      </c>
+      <c r="R9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="S9" s="137">
+        <v>5.5342276747179664</v>
+      </c>
+      <c r="V9" s="123">
+        <f>Marks!H10</f>
+        <v>2</v>
+      </c>
+      <c r="W9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="X9" s="137">
+        <v>0.45783285386760664</v>
+      </c>
+      <c r="AA9" s="123">
+        <f>Marks!I10</f>
         <v>6</v>
       </c>
-      <c r="B2" s="125" t="s">
+      <c r="AB9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC9" s="137">
+        <v>1.9914279828559631</v>
+      </c>
+      <c r="AF9" s="123">
+        <f>Marks!J10</f>
+        <v>8</v>
+      </c>
+      <c r="AG9" s="137" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH9" s="137">
+        <v>-0.6200257219571359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="123">
+        <f>Marks!D11</f>
+        <v>28</v>
+      </c>
+      <c r="C10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="137">
+        <v>-1.6946483221985815</v>
+      </c>
+      <c r="G10" s="123">
+        <f>Marks!E11</f>
+        <v>14</v>
+      </c>
+      <c r="H10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" s="137">
+        <v>-2.8104990510446641</v>
+      </c>
+      <c r="L10" s="123">
+        <f>Marks!F11</f>
+        <v>4</v>
+      </c>
+      <c r="M10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" s="137">
+        <v>-0.53997640510012967</v>
+      </c>
+      <c r="Q10" s="123">
+        <f>Marks!G11</f>
+        <v>14</v>
+      </c>
+      <c r="R10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="S10" s="137">
+        <v>-1.5739663799897878</v>
+      </c>
+      <c r="V10" s="123">
+        <f>Marks!H11</f>
+        <v>7</v>
+      </c>
+      <c r="W10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="X10" s="137">
+        <v>-2.4384874795082574E-2</v>
+      </c>
+      <c r="AA10" s="123">
+        <f>Marks!I11</f>
+        <v>10</v>
+      </c>
+      <c r="AB10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC10" s="137">
+        <v>-1.3706690112928934</v>
+      </c>
+      <c r="AF10" s="123">
+        <f>Marks!J11</f>
+        <v>7</v>
+      </c>
+      <c r="AG10" s="137" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH10" s="137">
+        <v>-0.8450799689116959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="123">
+        <f>Marks!D12</f>
+        <v>29</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="137">
+        <v>22</v>
+      </c>
+      <c r="G11" s="123">
+        <f>Marks!E12</f>
+        <v>14</v>
+      </c>
+      <c r="H11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="137">
+        <v>14</v>
+      </c>
+      <c r="L11" s="123">
+        <f>Marks!F12</f>
+        <v>2</v>
+      </c>
+      <c r="M11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="137">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="123">
+        <f>Marks!G12</f>
+        <v>9</v>
+      </c>
+      <c r="R11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="137">
+        <v>14</v>
+      </c>
+      <c r="V11" s="123">
+        <f>Marks!H12</f>
+        <v>6</v>
+      </c>
+      <c r="W11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="X11" s="137">
+        <v>12</v>
+      </c>
+      <c r="AA11" s="123">
+        <f>Marks!I12</f>
+        <v>8</v>
+      </c>
+      <c r="AB11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC11" s="137">
+        <v>10</v>
+      </c>
+      <c r="AF11" s="123">
+        <f>Marks!J12</f>
+        <v>7</v>
+      </c>
+      <c r="AG11" s="137" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH11" s="137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="123">
+        <f>Marks!D13</f>
+        <v>26</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" s="137">
+        <v>8</v>
+      </c>
+      <c r="G12" s="123">
+        <f>Marks!E13</f>
+        <v>8</v>
+      </c>
+      <c r="H12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="I12" s="137">
+        <v>0</v>
+      </c>
+      <c r="L12" s="123">
+        <f>Marks!F13</f>
+        <v>2</v>
+      </c>
+      <c r="M12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="N12" s="137">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="123">
+        <f>Marks!G13</f>
+        <v>9</v>
+      </c>
+      <c r="R12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="S12" s="137">
+        <v>0</v>
+      </c>
+      <c r="V12" s="123">
+        <f>Marks!H13</f>
+        <v>4</v>
+      </c>
+      <c r="W12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="X12" s="137">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="123">
+        <f>Marks!I13</f>
+        <v>5</v>
+      </c>
+      <c r="AB12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC12" s="137">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="123">
+        <f>Marks!J13</f>
+        <v>8</v>
+      </c>
+      <c r="AG12" s="137" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH12" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="123">
+        <f>Marks!D14</f>
+        <v>30</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="137">
+        <v>30</v>
+      </c>
+      <c r="G13" s="123">
+        <f>Marks!E14</f>
+        <v>11</v>
+      </c>
+      <c r="H13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="I13" s="137">
+        <v>14</v>
+      </c>
+      <c r="L13" s="123">
+        <f>Marks!F14</f>
+        <v>2</v>
+      </c>
+      <c r="M13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="N13" s="137">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="123">
+        <f>Marks!G14</f>
+        <v>9</v>
+      </c>
+      <c r="R13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="S13" s="137">
+        <v>14</v>
+      </c>
+      <c r="V13" s="123">
+        <f>Marks!H14</f>
+        <v>9</v>
+      </c>
+      <c r="W13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="X13" s="137">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="123">
+        <f>Marks!I14</f>
+        <v>7</v>
+      </c>
+      <c r="AB13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC13" s="137">
+        <v>10</v>
+      </c>
+      <c r="AF13" s="123">
+        <f>Marks!J14</f>
+        <v>7</v>
+      </c>
+      <c r="AG13" s="137" t="s">
+        <v>208</v>
+      </c>
+      <c r="AH13" s="137">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="123">
+        <f>Marks!D15</f>
+        <v>28</v>
+      </c>
+      <c r="C14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="D14" s="137">
+        <v>816</v>
+      </c>
+      <c r="G14" s="123">
+        <f>Marks!E15</f>
+        <v>11</v>
+      </c>
+      <c r="H14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="I14" s="137">
+        <v>376</v>
+      </c>
+      <c r="L14" s="123">
+        <f>Marks!F15</f>
+        <v>3</v>
+      </c>
+      <c r="M14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="N14" s="137">
+        <v>91</v>
+      </c>
+      <c r="Q14" s="123">
+        <f>Marks!G15</f>
+        <v>10</v>
+      </c>
+      <c r="R14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="S14" s="137">
+        <v>332</v>
+      </c>
+      <c r="V14" s="123">
+        <f>Marks!H15</f>
+        <v>6</v>
+      </c>
+      <c r="W14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" s="137">
+        <v>177</v>
+      </c>
+      <c r="AA14" s="123">
+        <f>Marks!I15</f>
+        <v>8</v>
+      </c>
+      <c r="AB14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC14" s="137">
+        <v>209</v>
+      </c>
+      <c r="AF14" s="123">
+        <f>Marks!J15</f>
+        <v>8</v>
+      </c>
+      <c r="AG14" s="137" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH14" s="137">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="123">
+        <f>Marks!D16</f>
+        <v>20</v>
+      </c>
+      <c r="C15" s="137" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="124">
+      <c r="D15" s="137">
+        <v>33</v>
+      </c>
+      <c r="G15" s="123">
+        <f>Marks!E16</f>
+        <v>9</v>
+      </c>
+      <c r="H15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="137">
+        <v>33</v>
+      </c>
+      <c r="L15" s="123">
+        <f>Marks!F16</f>
+        <v>4</v>
+      </c>
+      <c r="M15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="N15" s="137">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="123">
+        <f>Marks!G16</f>
+        <v>10</v>
+      </c>
+      <c r="R15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="137">
+        <v>33</v>
+      </c>
+      <c r="V15" s="123">
+        <f>Marks!H16</f>
+        <v>4</v>
+      </c>
+      <c r="W15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="X15" s="137">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="123">
+        <f>Marks!I16</f>
+        <v>7</v>
+      </c>
+      <c r="AB15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="AC15" s="137">
+        <v>33</v>
+      </c>
+      <c r="AF15" s="123">
+        <f>Marks!J16</f>
+        <v>7</v>
+      </c>
+      <c r="AG15" s="137" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH15" s="137">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="123">
+        <f>Marks!D17</f>
+        <v>26</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="138">
+        <v>1.6802425617623034</v>
+      </c>
+      <c r="G16" s="123">
+        <f>Marks!E17</f>
+        <v>11</v>
+      </c>
+      <c r="H16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" s="138">
+        <v>0.91240697823172234</v>
+      </c>
+      <c r="L16" s="123">
+        <f>Marks!F17</f>
+        <v>2</v>
+      </c>
+      <c r="M16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="N16" s="138">
+        <v>0.42541194713654801</v>
+      </c>
+      <c r="Q16" s="123">
+        <f>Marks!G17</f>
+        <v>10</v>
+      </c>
+      <c r="R16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="S16" s="138">
+        <v>0.96269629850040805</v>
+      </c>
+      <c r="V16" s="123">
+        <f>Marks!H17</f>
+        <v>8</v>
+      </c>
+      <c r="W16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="X16" s="138">
+        <v>0.91618345942193713</v>
+      </c>
+      <c r="AA16" s="123">
+        <f>Marks!I17</f>
+        <v>6</v>
+      </c>
+      <c r="AB16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC16" s="138">
+        <v>0.81567300062233583</v>
+      </c>
+      <c r="AF16" s="123">
+        <f>Marks!J17</f>
+        <v>1</v>
+      </c>
+      <c r="AG16" s="138" t="s">
+        <v>209</v>
+      </c>
+      <c r="AH16" s="138">
+        <v>1.0523884085667092</v>
+      </c>
+    </row>
+    <row r="17" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B17" s="123">
+        <f>Marks!D18</f>
+        <v>24</v>
+      </c>
+      <c r="G17" s="123">
+        <f>Marks!E18</f>
+        <v>11</v>
+      </c>
+      <c r="L17" s="123">
+        <f>Marks!F18</f>
+        <v>4</v>
+      </c>
+      <c r="Q17" s="123">
+        <f>Marks!G18</f>
+        <v>4</v>
+      </c>
+      <c r="V17" s="123">
+        <f>Marks!H18</f>
         <v>5</v>
       </c>
-      <c r="D2" s="124">
+      <c r="AA17" s="123">
+        <f>Marks!I18</f>
+        <v>6</v>
+      </c>
+      <c r="AF17" s="123">
+        <f>Marks!J18</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B18" s="123">
+        <f>Marks!D19</f>
+        <v>21</v>
+      </c>
+      <c r="G18" s="123">
+        <f>Marks!E19</f>
+        <v>10</v>
+      </c>
+      <c r="L18" s="123">
+        <f>Marks!F19</f>
+        <v>4</v>
+      </c>
+      <c r="Q18" s="123">
+        <f>Marks!G19</f>
+        <v>12</v>
+      </c>
+      <c r="V18" s="123">
+        <f>Marks!H19</f>
+        <v>3</v>
+      </c>
+      <c r="AA18" s="123">
+        <f>Marks!I19</f>
+        <v>3</v>
+      </c>
+      <c r="AF18" s="123">
+        <f>Marks!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B19" s="123">
+        <f>Marks!D20</f>
+        <v>23</v>
+      </c>
+      <c r="G19" s="123">
+        <f>Marks!E20</f>
+        <v>13</v>
+      </c>
+      <c r="L19" s="123">
+        <f>Marks!F20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="124">
+      <c r="Q19" s="123">
+        <f>Marks!G20</f>
+        <v>11</v>
+      </c>
+      <c r="V19" s="123">
+        <f>Marks!H20</f>
         <v>4</v>
       </c>
-      <c r="B3" s="125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="124">
+      <c r="AA19" s="123">
+        <f>Marks!I20</f>
+        <v>8</v>
+      </c>
+      <c r="AF19" s="123">
+        <f>Marks!J20</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B20" s="123">
+        <f>Marks!D21</f>
+        <v>30</v>
+      </c>
+      <c r="G20" s="123">
+        <f>Marks!E21</f>
+        <v>13</v>
+      </c>
+      <c r="L20" s="123">
+        <f>Marks!F21</f>
+        <v>3</v>
+      </c>
+      <c r="Q20" s="123">
+        <f>Marks!G21</f>
+        <v>11</v>
+      </c>
+      <c r="V20" s="123">
+        <f>Marks!H21</f>
+        <v>4</v>
+      </c>
+      <c r="AA20" s="123">
+        <f>Marks!I21</f>
+        <v>7</v>
+      </c>
+      <c r="AF20" s="123">
+        <f>Marks!J21</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B21" s="123">
+        <f>Marks!D22</f>
+        <v>27</v>
+      </c>
+      <c r="G21" s="123">
+        <f>Marks!E22</f>
+        <v>13</v>
+      </c>
+      <c r="L21" s="123">
+        <f>Marks!F22</f>
+        <v>2</v>
+      </c>
+      <c r="Q21" s="123">
+        <f>Marks!G22</f>
+        <v>9</v>
+      </c>
+      <c r="V21" s="123">
+        <f>Marks!H22</f>
+        <v>4</v>
+      </c>
+      <c r="AA21" s="123">
+        <f>Marks!I22</f>
+        <v>7</v>
+      </c>
+      <c r="AF21" s="123">
+        <f>Marks!J22</f>
         <v>5</v>
       </c>
-      <c r="D3" s="123" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="124">
+    </row>
+    <row r="22" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B22" s="123">
+        <f>Marks!D23</f>
+        <v>28</v>
+      </c>
+      <c r="G22" s="123">
+        <f>Marks!E23</f>
+        <v>13</v>
+      </c>
+      <c r="L22" s="123">
+        <f>Marks!F23</f>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="123">
+        <f>Marks!G23</f>
+        <v>10</v>
+      </c>
+      <c r="V22" s="123">
+        <f>Marks!H23</f>
+        <v>4</v>
+      </c>
+      <c r="AA22" s="123">
+        <f>Marks!I23</f>
+        <v>7</v>
+      </c>
+      <c r="AF22" s="123">
+        <f>Marks!J23</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B23" s="123">
+        <f>Marks!D24</f>
+        <v>26</v>
+      </c>
+      <c r="G23" s="123">
+        <f>Marks!E24</f>
+        <v>14</v>
+      </c>
+      <c r="L23" s="123">
+        <f>Marks!F24</f>
+        <v>5</v>
+      </c>
+      <c r="Q23" s="123">
+        <f>Marks!G24</f>
+        <v>11</v>
+      </c>
+      <c r="V23" s="123">
+        <f>Marks!H24</f>
+        <v>7</v>
+      </c>
+      <c r="AA23" s="123">
+        <f>Marks!I24</f>
+        <v>7</v>
+      </c>
+      <c r="AF23" s="123">
+        <f>Marks!J24</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B24" s="123">
+        <f>Marks!D25</f>
+        <v>28</v>
+      </c>
+      <c r="G24" s="123">
+        <f>Marks!E25</f>
+        <v>14</v>
+      </c>
+      <c r="L24" s="123">
+        <f>Marks!F25</f>
+        <v>2</v>
+      </c>
+      <c r="Q24" s="123">
+        <f>Marks!G25</f>
+        <v>10</v>
+      </c>
+      <c r="V24" s="123">
+        <f>Marks!H25</f>
+        <v>4</v>
+      </c>
+      <c r="AA24" s="123">
+        <f>Marks!I25</f>
         <v>3</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="124">
+      <c r="AF24" s="123">
+        <f>Marks!J25</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B25" s="123">
+        <f>Marks!D26</f>
+        <v>15</v>
+      </c>
+      <c r="G25" s="123">
+        <f>Marks!E26</f>
+        <v>10</v>
+      </c>
+      <c r="L25" s="123">
+        <f>Marks!F26</f>
+        <v>3</v>
+      </c>
+      <c r="Q25" s="123">
+        <f>Marks!G26</f>
+        <v>9</v>
+      </c>
+      <c r="V25" s="123">
+        <f>Marks!H26</f>
+        <v>12</v>
+      </c>
+      <c r="AA25" s="123">
+        <f>Marks!I26</f>
+        <v>7</v>
+      </c>
+      <c r="AF25" s="123">
+        <f>Marks!J26</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B26" s="123">
+        <f>Marks!D27</f>
+        <v>27</v>
+      </c>
+      <c r="G26" s="123">
+        <f>Marks!E27</f>
+        <v>12</v>
+      </c>
+      <c r="L26" s="123">
+        <f>Marks!F27</f>
+        <v>3</v>
+      </c>
+      <c r="Q26" s="123">
+        <f>Marks!G27</f>
+        <v>10</v>
+      </c>
+      <c r="V26" s="123">
+        <f>Marks!H27</f>
+        <v>7</v>
+      </c>
+      <c r="AA26" s="123">
+        <f>Marks!I27</f>
+        <v>6</v>
+      </c>
+      <c r="AF26" s="123">
+        <f>Marks!J27</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B27" s="123">
+        <f>Marks!D28</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="123">
+        <f>Marks!E28</f>
+        <v>12</v>
+      </c>
+      <c r="L27" s="123">
+        <f>Marks!F28</f>
         <v>2</v>
       </c>
-      <c r="D4" s="123" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="124">
-        <v>2</v>
-      </c>
-      <c r="B5" s="125" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="124">
-        <v>2</v>
-      </c>
-      <c r="D5" s="123" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="124">
+      <c r="Q27" s="123">
+        <f>Marks!G28</f>
+        <v>9</v>
+      </c>
+      <c r="V27" s="123">
+        <f>Marks!H28</f>
+        <v>5</v>
+      </c>
+      <c r="AA27" s="123">
+        <f>Marks!I28</f>
+        <v>3</v>
+      </c>
+      <c r="AF27" s="123">
+        <f>Marks!J28</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B28" s="123">
+        <f>Marks!D29</f>
+        <v>8</v>
+      </c>
+      <c r="G28" s="123">
+        <f>Marks!E29</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="123">
+        <f>Marks!F29</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="123">
+        <f>Marks!G29</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="123">
+        <f>Marks!H29</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="123">
+        <f>Marks!I29</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="123">
+        <f>Marks!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B29" s="123">
+        <f>Marks!D30</f>
+        <v>28</v>
+      </c>
+      <c r="G29" s="123">
+        <f>Marks!E30</f>
+        <v>11</v>
+      </c>
+      <c r="L29" s="123">
+        <f>Marks!F30</f>
+        <v>3</v>
+      </c>
+      <c r="Q29" s="123">
+        <f>Marks!G30</f>
+        <v>10</v>
+      </c>
+      <c r="V29" s="123">
+        <f>Marks!H30</f>
         <v>7</v>
       </c>
-      <c r="B6" s="125" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" s="124">
+      <c r="AA29" s="123">
+        <f>Marks!I30</f>
+        <v>5</v>
+      </c>
+      <c r="AF29" s="123">
+        <f>Marks!J30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B30" s="123">
+        <f>Marks!D31</f>
+        <v>27</v>
+      </c>
+      <c r="G30" s="123">
+        <f>Marks!E31</f>
+        <v>12</v>
+      </c>
+      <c r="L30" s="123">
+        <f>Marks!F31</f>
         <v>4</v>
       </c>
-      <c r="D6" s="123" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="124">
+      <c r="Q30" s="123">
+        <f>Marks!G31</f>
+        <v>13</v>
+      </c>
+      <c r="V30" s="123">
+        <f>Marks!H31</f>
+        <v>6</v>
+      </c>
+      <c r="AA30" s="123">
+        <f>Marks!I31</f>
+        <v>9</v>
+      </c>
+      <c r="AF30" s="123">
+        <f>Marks!J31</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B31" s="123">
+        <f>Marks!D32</f>
+        <v>26</v>
+      </c>
+      <c r="G31" s="123">
+        <f>Marks!E32</f>
+        <v>14</v>
+      </c>
+      <c r="L31" s="123">
+        <f>Marks!F32</f>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="123">
+        <f>Marks!G32</f>
+        <v>9</v>
+      </c>
+      <c r="V31" s="123">
+        <f>Marks!H32</f>
+        <v>7</v>
+      </c>
+      <c r="AA31" s="123">
+        <f>Marks!I32</f>
+        <v>8</v>
+      </c>
+      <c r="AF31" s="123">
+        <f>Marks!J32</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B32" s="123">
+        <f>Marks!D33</f>
+        <v>24</v>
+      </c>
+      <c r="G32" s="123">
+        <f>Marks!E33</f>
+        <v>11</v>
+      </c>
+      <c r="L32" s="123">
+        <f>Marks!F33</f>
+        <v>4</v>
+      </c>
+      <c r="Q32" s="123">
+        <f>Marks!G33</f>
+        <v>14</v>
+      </c>
+      <c r="V32" s="123">
+        <f>Marks!H33</f>
+        <v>7</v>
+      </c>
+      <c r="AA32" s="123">
+        <f>Marks!I33</f>
+        <v>7</v>
+      </c>
+      <c r="AF32" s="123">
+        <f>Marks!J33</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B33" s="123">
+        <f>Marks!D34</f>
+        <v>23</v>
+      </c>
+      <c r="G33" s="123">
+        <f>Marks!E34</f>
+        <v>9</v>
+      </c>
+      <c r="L33" s="123">
+        <f>Marks!F34</f>
+        <v>4</v>
+      </c>
+      <c r="Q33" s="123">
+        <f>Marks!G34</f>
+        <v>10</v>
+      </c>
+      <c r="V33" s="123">
+        <f>Marks!H34</f>
         <v>5</v>
       </c>
-      <c r="B7" s="125" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="124">
-        <v>3</v>
-      </c>
-      <c r="D7" s="123" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="124">
-        <v>1</v>
-      </c>
-      <c r="B8" s="125" t="s">
-        <v>193</v>
+      <c r="AA33" s="123">
+        <f>Marks!I34</f>
+        <v>6</v>
+      </c>
+      <c r="AF33" s="123">
+        <f>Marks!J34</f>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F8">
-    <sortCondition ref="D2:D8"/>
-  </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -6162,17 +9003,720 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="123"/>
+    <col min="9" max="9" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="123"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="145" t="str">
+        <f>'Analytics per Qn'!H1</f>
+        <v>1b</v>
+      </c>
+      <c r="D2" s="145" t="str">
+        <f>'Analytics per Qn'!M1</f>
+        <v>1c</v>
+      </c>
+      <c r="E2" s="145" t="str">
+        <f>'Analytics per Qn'!R1</f>
+        <v>1d</v>
+      </c>
+      <c r="F2" s="146" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="146" t="s">
+        <v>196</v>
+      </c>
+      <c r="H2" s="146" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="145" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="147">
+        <f>'Analytics per Qn'!D3</f>
+        <v>24.727272727272727</v>
+      </c>
+      <c r="C3" s="147">
+        <f>'Analytics per Qn'!I3</f>
+        <v>11.393939393939394</v>
+      </c>
+      <c r="D3" s="147">
+        <f>'Analytics per Qn'!N3</f>
+        <v>2.7575757575757578</v>
+      </c>
+      <c r="E3" s="147">
+        <f>'Analytics per Qn'!S3</f>
+        <v>10.060606060606061</v>
+      </c>
+      <c r="F3" s="148">
+        <f>'Analytics per Qn'!X3</f>
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="G3" s="148">
+        <f>'Analytics per Qn'!AC3</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="H3" s="148">
+        <f>'Analytics per Qn'!AH3</f>
+        <v>5.3939393939393936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="145" t="s">
+        <v>200</v>
+      </c>
+      <c r="B4" s="147">
+        <f>'Analytics per Qn'!D4</f>
+        <v>0.8248883387161341</v>
+      </c>
+      <c r="C4" s="147">
+        <f>'Analytics per Qn'!I4</f>
+        <v>0.44793168179074205</v>
+      </c>
+      <c r="D4" s="147">
+        <f>'Analytics per Qn'!N4</f>
+        <v>0.2088492235165185</v>
+      </c>
+      <c r="E4" s="147">
+        <f>'Analytics per Qn'!S4</f>
+        <v>0.47262042304491592</v>
+      </c>
+      <c r="F4" s="148">
+        <f>'Analytics per Qn'!X4</f>
+        <v>0.44978568511507261</v>
+      </c>
+      <c r="G4" s="148">
+        <f>'Analytics per Qn'!AC4</f>
+        <v>0.40044167534553055</v>
+      </c>
+      <c r="H4" s="148">
+        <f>'Analytics per Qn'!AH4</f>
+        <v>0.51665333671598523</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="145" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="147">
+        <f>'Analytics per Qn'!D5</f>
+        <v>26</v>
+      </c>
+      <c r="C5" s="147">
+        <f>'Analytics per Qn'!I5</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="147">
+        <f>'Analytics per Qn'!N5</f>
+        <v>3</v>
+      </c>
+      <c r="E5" s="147">
+        <f>'Analytics per Qn'!S5</f>
+        <v>10</v>
+      </c>
+      <c r="F5" s="148">
+        <f>'Analytics per Qn'!X5</f>
+        <v>6</v>
+      </c>
+      <c r="G5" s="148">
+        <f>'Analytics per Qn'!AC5</f>
+        <v>7</v>
+      </c>
+      <c r="H5" s="148">
+        <f>'Analytics per Qn'!AH5</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="145" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="147">
+        <f>'Analytics per Qn'!D6</f>
+        <v>28</v>
+      </c>
+      <c r="C6" s="147">
+        <f>'Analytics per Qn'!I6</f>
+        <v>11</v>
+      </c>
+      <c r="D6" s="147">
+        <f>'Analytics per Qn'!N6</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="147">
+        <f>'Analytics per Qn'!S6</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="148">
+        <f>'Analytics per Qn'!X6</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="148">
+        <f>'Analytics per Qn'!AC6</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="148">
+        <f>'Analytics per Qn'!AH6</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="145" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="147">
+        <f>'Analytics per Qn'!D7</f>
+        <v>4.7386227381535129</v>
+      </c>
+      <c r="C7" s="147">
+        <f>'Analytics per Qn'!I7</f>
+        <v>2.5731716074160551</v>
+      </c>
+      <c r="D7" s="147">
+        <f>'Analytics per Qn'!N7</f>
+        <v>1.1997474481714638</v>
+      </c>
+      <c r="E7" s="147">
+        <f>'Analytics per Qn'!S7</f>
+        <v>2.7149976282148249</v>
+      </c>
+      <c r="F7" s="148">
+        <f>'Analytics per Qn'!X7</f>
+        <v>2.583822045659562</v>
+      </c>
+      <c r="G7" s="148">
+        <f>'Analytics per Qn'!AC7</f>
+        <v>2.3003622903070431</v>
+      </c>
+      <c r="H7" s="148">
+        <f>'Analytics per Qn'!AH7</f>
+        <v>2.9679474593078834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="145" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="147">
+        <f>'Analytics per Qn'!D8</f>
+        <v>22.454545454545496</v>
+      </c>
+      <c r="C8" s="147">
+        <f>'Analytics per Qn'!I8</f>
+        <v>6.6212121212121247</v>
+      </c>
+      <c r="D8" s="147">
+        <f>'Analytics per Qn'!N8</f>
+        <v>1.4393939393939394</v>
+      </c>
+      <c r="E8" s="147">
+        <f>'Analytics per Qn'!S8</f>
+        <v>7.3712121212121247</v>
+      </c>
+      <c r="F8" s="148">
+        <f>'Analytics per Qn'!X8</f>
+        <v>6.6761363636363633</v>
+      </c>
+      <c r="G8" s="148">
+        <f>'Analytics per Qn'!AC8</f>
+        <v>5.2916666666666643</v>
+      </c>
+      <c r="H8" s="148">
+        <f>'Analytics per Qn'!AH8</f>
+        <v>8.8087121212121211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="145" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="147">
+        <f>'Analytics per Qn'!D9</f>
+        <v>3.739222610730621</v>
+      </c>
+      <c r="C9" s="147">
+        <f>'Analytics per Qn'!I9</f>
+        <v>11.604491727165991</v>
+      </c>
+      <c r="D9" s="147">
+        <f>'Analytics per Qn'!N9</f>
+        <v>5.3444017514072684E-2</v>
+      </c>
+      <c r="E9" s="147">
+        <f>'Analytics per Qn'!S9</f>
+        <v>5.5342276747179664</v>
+      </c>
+      <c r="F9" s="148">
+        <f>'Analytics per Qn'!X9</f>
+        <v>0.45783285386760664</v>
+      </c>
+      <c r="G9" s="148">
+        <f>'Analytics per Qn'!AC9</f>
+        <v>1.9914279828559631</v>
+      </c>
+      <c r="H9" s="148">
+        <f>'Analytics per Qn'!AH9</f>
+        <v>-0.6200257219571359</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="145" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="147">
+        <f>'Analytics per Qn'!D10</f>
+        <v>-1.6946483221985815</v>
+      </c>
+      <c r="C10" s="147">
+        <f>'Analytics per Qn'!I10</f>
+        <v>-2.8104990510446641</v>
+      </c>
+      <c r="D10" s="147">
+        <f>'Analytics per Qn'!N10</f>
+        <v>-0.53997640510012967</v>
+      </c>
+      <c r="E10" s="147">
+        <f>'Analytics per Qn'!S10</f>
+        <v>-1.5739663799897878</v>
+      </c>
+      <c r="F10" s="148">
+        <f>'Analytics per Qn'!X10</f>
+        <v>-2.4384874795082574E-2</v>
+      </c>
+      <c r="G10" s="148">
+        <f>'Analytics per Qn'!AC10</f>
+        <v>-1.3706690112928934</v>
+      </c>
+      <c r="H10" s="148">
+        <f>'Analytics per Qn'!AH10</f>
+        <v>-0.8450799689116959</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="145" t="s">
+        <v>110</v>
+      </c>
+      <c r="B11" s="147">
+        <f>'Analytics per Qn'!D11</f>
+        <v>22</v>
+      </c>
+      <c r="C11" s="147">
+        <f>'Analytics per Qn'!I11</f>
+        <v>14</v>
+      </c>
+      <c r="D11" s="147">
+        <f>'Analytics per Qn'!N11</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="147">
+        <f>'Analytics per Qn'!S11</f>
+        <v>14</v>
+      </c>
+      <c r="F11" s="148">
+        <f>'Analytics per Qn'!X11</f>
+        <v>12</v>
+      </c>
+      <c r="G11" s="148">
+        <f>'Analytics per Qn'!AC11</f>
+        <v>10</v>
+      </c>
+      <c r="H11" s="148">
+        <f>'Analytics per Qn'!AH11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="145" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="147">
+        <f>'Analytics per Qn'!D12</f>
+        <v>8</v>
+      </c>
+      <c r="C12" s="147">
+        <f>'Analytics per Qn'!I12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="147">
+        <f>'Analytics per Qn'!N12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="147">
+        <f>'Analytics per Qn'!S12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="148">
+        <f>'Analytics per Qn'!X12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="148">
+        <f>'Analytics per Qn'!AC12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="148">
+        <f>'Analytics per Qn'!AH12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="145" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13" s="147">
+        <f>'Analytics per Qn'!D13</f>
+        <v>30</v>
+      </c>
+      <c r="C13" s="147">
+        <f>'Analytics per Qn'!I13</f>
+        <v>14</v>
+      </c>
+      <c r="D13" s="147">
+        <f>'Analytics per Qn'!N13</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="147">
+        <f>'Analytics per Qn'!S13</f>
+        <v>14</v>
+      </c>
+      <c r="F13" s="148">
+        <f>'Analytics per Qn'!X13</f>
+        <v>12</v>
+      </c>
+      <c r="G13" s="148">
+        <f>'Analytics per Qn'!AC13</f>
+        <v>10</v>
+      </c>
+      <c r="H13" s="148">
+        <f>'Analytics per Qn'!AH13</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="147">
+        <f>'Analytics per Qn'!D14</f>
+        <v>816</v>
+      </c>
+      <c r="C14" s="147">
+        <f>'Analytics per Qn'!I14</f>
+        <v>376</v>
+      </c>
+      <c r="D14" s="147">
+        <f>'Analytics per Qn'!N14</f>
+        <v>91</v>
+      </c>
+      <c r="E14" s="147">
+        <f>'Analytics per Qn'!S14</f>
+        <v>332</v>
+      </c>
+      <c r="F14" s="148">
+        <f>'Analytics per Qn'!X14</f>
+        <v>177</v>
+      </c>
+      <c r="G14" s="148">
+        <f>'Analytics per Qn'!AC14</f>
+        <v>209</v>
+      </c>
+      <c r="H14" s="148">
+        <f>'Analytics per Qn'!AH14</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="145" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="147">
+        <f>'Analytics per Qn'!D15</f>
+        <v>33</v>
+      </c>
+      <c r="C15" s="147">
+        <f>'Analytics per Qn'!I15</f>
+        <v>33</v>
+      </c>
+      <c r="D15" s="147">
+        <f>'Analytics per Qn'!N15</f>
+        <v>33</v>
+      </c>
+      <c r="E15" s="147">
+        <f>'Analytics per Qn'!S15</f>
+        <v>33</v>
+      </c>
+      <c r="F15" s="148">
+        <f>'Analytics per Qn'!X15</f>
+        <v>33</v>
+      </c>
+      <c r="G15" s="148">
+        <f>'Analytics per Qn'!AC15</f>
+        <v>33</v>
+      </c>
+      <c r="H15" s="148">
+        <f>'Analytics per Qn'!AH15</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="145" t="s">
+        <v>209</v>
+      </c>
+      <c r="B16" s="147">
+        <f>'Analytics per Qn'!D16</f>
+        <v>1.6802425617623034</v>
+      </c>
+      <c r="C16" s="147">
+        <f>'Analytics per Qn'!I16</f>
+        <v>0.91240697823172234</v>
+      </c>
+      <c r="D16" s="147">
+        <f>'Analytics per Qn'!N16</f>
+        <v>0.42541194713654801</v>
+      </c>
+      <c r="E16" s="147">
+        <f>'Analytics per Qn'!S16</f>
+        <v>0.96269629850040805</v>
+      </c>
+      <c r="F16" s="148">
+        <f>'Analytics per Qn'!X16</f>
+        <v>0.91618345942193713</v>
+      </c>
+      <c r="G16" s="148">
+        <f>'Analytics per Qn'!AC16</f>
+        <v>0.81567300062233583</v>
+      </c>
+      <c r="H16" s="148">
+        <f>'Analytics per Qn'!AH16</f>
+        <v>1.0523884085667092</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAEE1FD-B3E7-4836-BEB6-5505DAAA0FB7}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" style="123" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="123" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="123"/>
+    <col min="9" max="9" width="21.7109375" style="123" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="6.5703125" style="123" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.85546875" style="123"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>219</v>
+      </c>
+      <c r="F1" s="139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="140">
+        <v>1</v>
+      </c>
+      <c r="B2" s="141" t="s">
+        <v>218</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="140">
+        <v>2</v>
+      </c>
+      <c r="B3" s="141" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="140">
+        <v>2</v>
+      </c>
+      <c r="D3" s="139" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="143">
+        <f>'Analytics per Qn'!X3</f>
+        <v>5.3636363636363633</v>
+      </c>
+      <c r="F3" s="143">
+        <f>E3/10*100</f>
+        <v>53.63636363636364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="140">
+        <v>3</v>
+      </c>
+      <c r="B4" s="141" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="140">
+        <v>2</v>
+      </c>
+      <c r="D4" s="139" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="143">
+        <f>'Analytics per Qn'!N3</f>
+        <v>2.7575757575757578</v>
+      </c>
+      <c r="F4" s="143">
+        <f>E4/8*100</f>
+        <v>34.469696969696969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="140">
+        <v>4</v>
+      </c>
+      <c r="B5" s="141" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="140">
+        <v>5</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="143">
+        <f>'Analytics per Qn'!D3</f>
+        <v>24.727272727272727</v>
+      </c>
+      <c r="F5" s="143">
+        <f>E5/33*100</f>
+        <v>74.931129476584019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="140">
+        <v>5</v>
+      </c>
+      <c r="B6" s="141" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="140">
+        <v>3</v>
+      </c>
+      <c r="D6" s="139" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="143">
+        <f>'Analytics per Qn'!AH3</f>
+        <v>5.3939393939393936</v>
+      </c>
+      <c r="F6" s="143">
+        <f>E6/10*100</f>
+        <v>53.939393939393931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="140">
+        <v>6</v>
+      </c>
+      <c r="B7" s="141" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="140">
+        <v>5</v>
+      </c>
+      <c r="D7" s="140">
+        <v>1</v>
+      </c>
+      <c r="E7" s="143">
+        <f>'Analytics per Qn'!D3+'Analytics per Qn'!I3+'Analytics per Qn'!N3+'Analytics per Qn'!S3</f>
+        <v>48.939393939393945</v>
+      </c>
+      <c r="F7" s="143">
+        <f>E7/(33+14+8+15)*100</f>
+        <v>69.913419913419915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="140">
+        <v>7</v>
+      </c>
+      <c r="B8" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="140">
+        <v>4</v>
+      </c>
+      <c r="D8" s="139" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="143">
+        <f>'Analytics per Qn'!AC3</f>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F8" s="143">
+        <f>E8/10*100</f>
+        <v>63.333333333333329</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F8">
+    <sortCondition ref="A2:A8"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>